--- a/DB.xlsx
+++ b/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="391">
   <si>
     <t>Country</t>
   </si>
@@ -31,6 +31,9 @@
     <t>ppp_todollar</t>
   </si>
   <si>
+    <t>ppp_spain</t>
+  </si>
+  <si>
     <t>aruba</t>
   </si>
   <si>
@@ -436,18 +439,6 @@
     <t>somalia</t>
   </si>
   <si>
-    <t>suriname</t>
-  </si>
-  <si>
-    <t>slovenia</t>
-  </si>
-  <si>
-    <t>sweden</t>
-  </si>
-  <si>
-    <t>sint maarten (dutch part)</t>
-  </si>
-  <si>
     <t>seychelles</t>
   </si>
   <si>
@@ -817,15 +808,6 @@
     <t>Somali Shilling</t>
   </si>
   <si>
-    <t>Surinam Dollar</t>
-  </si>
-  <si>
-    <t>Swedish Krona</t>
-  </si>
-  <si>
-    <t>Netherlands Antillean Guilder</t>
-  </si>
-  <si>
     <t>Seychelles Rupee</t>
   </si>
   <si>
@@ -1172,15 +1154,6 @@
   </si>
   <si>
     <t>SOS</t>
-  </si>
-  <si>
-    <t>SRD</t>
-  </si>
-  <si>
-    <t>SEK</t>
-  </si>
-  <si>
-    <t>ANG</t>
   </si>
   <si>
     <t>SCR</t>
@@ -1571,13 +1544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,2793 +1566,3188 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1.35068964958191</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>17.9144826699909</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E3">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>146.167167826781</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E4">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>41.3423914138531</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E5">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2.25850307596397</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E6">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>20.7139578408443</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E7">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>155.770479651178</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2.01945320919558</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E9">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1.461587</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E10">
         <v>1.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.759962</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E11">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0.541783029023867</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E12">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>614.273901861231</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E13">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0.7540249999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E14">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>208.14828767688</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E15">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>202.684664333737</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E16">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>31.4128719205924</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E17">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0.6985512891981379</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E18">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0.188021618496962</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0.674721776333022</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E20">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0.69701659405586</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E21">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1.31658399660205</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E22">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>1.37078595612015</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E23">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>2.69410512565797</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E24">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>2.24738365412163</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E25">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>2.22256686623555</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E26">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0.6539719595070339</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E27">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>18.9001286950754</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E28">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>18.9001286950754</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E29">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>4.615553083753571</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E30">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>277.852867490644</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E31">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>1.198088</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E32">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>1.143836</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E33">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>420.903055</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E34">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>420.903055</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E35">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>4.20011786862713</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D36" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E36">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>232.218111523829</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E37">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>1351.775746</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E38">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>188.465816580834</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E39">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>47.39553801356399</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E40">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>341.441239</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E41">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>0.321938711455632</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E42">
         <v>0.013</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>0.977497020934353</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E43">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>0.608703010927457</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E44">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>12.843495</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E45">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>105.005967896123</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E46">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>1.75970417134687</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E47">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>6.66035</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E48">
         <v>1.09</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>22.09468557324831</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E49">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>39.4753858871813</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E50">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>0.520580052113819</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E51">
         <v>0.520580052113819</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>0.624484</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E52">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>0.5329</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E53">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>10.3494460595822</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E54">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>0.8545879999999999</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E55">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>0.933689773974448</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D56" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E56">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>0.740525</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E57">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>291.498912218778</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E58">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>0.716264</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E59">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>0.8456104377652759</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E60">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>3305.07540389528</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E61">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>196.665273716979</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E62">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>245.860160205986</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E63">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>0.545546</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E64">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>1.64017111055948</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E65">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>3.94233344405393</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D66" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E66">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>100.876253504271</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E67">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>10.5504895992806</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E68">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>3.27215211127603</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E69">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>35.2871565136136</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E70">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>35.2871565136136</v>
+        <v>145.659085</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D71" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E71">
-        <v>35.2871565136136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.5</v>
+      </c>
+      <c r="F71">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>145.659085</v>
+        <v>4743.33744681905</v>
       </c>
       <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72">
+        <v>0.33</v>
+      </c>
+      <c r="F72">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>21.2755038338788</v>
+      </c>
+      <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73">
+        <v>0.29</v>
+      </c>
+      <c r="F73">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>0.816018</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74">
+        <v>0.99</v>
+      </c>
+      <c r="F74">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>619.478128523479</v>
+      </c>
+      <c r="C75" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E75">
+        <v>0.42</v>
+      </c>
+      <c r="F75">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>144.108968</v>
+      </c>
+      <c r="C76" t="s">
         <v>217</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D76" t="s">
+        <v>333</v>
+      </c>
+      <c r="E76">
+        <v>1.19</v>
+      </c>
+      <c r="F76">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>3.686015</v>
+      </c>
+      <c r="C77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" t="s">
+        <v>334</v>
+      </c>
+      <c r="E77">
+        <v>1.14</v>
+      </c>
+      <c r="F77">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>0.669014</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F78">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>73.0058892307643</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" t="s">
+        <v>335</v>
+      </c>
+      <c r="E79">
+        <v>0.49</v>
+      </c>
+      <c r="F79">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>0.2974115086205969</v>
+      </c>
+      <c r="C80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" t="s">
         <v>336</v>
       </c>
-      <c r="E72">
+      <c r="E80">
+        <v>0.42</v>
+      </c>
+      <c r="F80">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>103.412076</v>
+      </c>
+      <c r="C81" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" t="s">
+        <v>337</v>
+      </c>
+      <c r="E81">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F81">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>136.483499986547</v>
+      </c>
+      <c r="C82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" t="s">
+        <v>338</v>
+      </c>
+      <c r="E82">
+        <v>0.32</v>
+      </c>
+      <c r="F82">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>40.97544493910021</v>
+      </c>
+      <c r="C83" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" t="s">
+        <v>339</v>
+      </c>
+      <c r="E83">
+        <v>0.38</v>
+      </c>
+      <c r="F83">
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>4743.33744681905</v>
-      </c>
-      <c r="C73" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" t="s">
-        <v>337</v>
-      </c>
-      <c r="E73">
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>1456.01938306187</v>
+      </c>
+      <c r="C84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" t="s">
+        <v>340</v>
+      </c>
+      <c r="E84">
+        <v>0.36</v>
+      </c>
+      <c r="F84">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>1.00353202407101</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" t="s">
+        <v>283</v>
+      </c>
+      <c r="E85">
+        <v>0.77</v>
+      </c>
+      <c r="F85">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>0.1866190509020389</v>
+      </c>
+      <c r="C86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" t="s">
+        <v>341</v>
+      </c>
+      <c r="E86">
+        <v>0.62</v>
+      </c>
+      <c r="F86">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>775.5610925021471</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87">
+        <v>0.51</v>
+      </c>
+      <c r="F87">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>0.417096855708647</v>
+      </c>
+      <c r="C88" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" t="s">
+        <v>343</v>
+      </c>
+      <c r="E88">
+        <v>0.0024</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>0.67805244642179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89" t="s">
+        <v>344</v>
+      </c>
+      <c r="E89">
+        <v>0.15</v>
+      </c>
+      <c r="F89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>50.4303490949173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" t="s">
+        <v>345</v>
+      </c>
+      <c r="E90">
+        <v>0.25</v>
+      </c>
+      <c r="F90">
         <v>0.33</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>21.2755038338788</v>
-      </c>
-      <c r="C74" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" t="s">
-        <v>306</v>
-      </c>
-      <c r="E74">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>0.816018</v>
-      </c>
-      <c r="C75" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" t="s">
-        <v>290</v>
-      </c>
-      <c r="E75">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>619.478128523479</v>
-      </c>
-      <c r="C76" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" t="s">
-        <v>338</v>
-      </c>
-      <c r="E76">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>144.108968</v>
-      </c>
-      <c r="C77" t="s">
-        <v>220</v>
-      </c>
-      <c r="D77" t="s">
-        <v>339</v>
-      </c>
-      <c r="E77">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>3.686015</v>
-      </c>
-      <c r="C78" t="s">
-        <v>221</v>
-      </c>
-      <c r="D78" t="s">
-        <v>340</v>
-      </c>
-      <c r="E78">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>0.669014</v>
-      </c>
-      <c r="C79" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" t="s">
-        <v>290</v>
-      </c>
-      <c r="E79">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>73.0058892307643</v>
-      </c>
-      <c r="C80" t="s">
-        <v>222</v>
-      </c>
-      <c r="D80" t="s">
-        <v>341</v>
-      </c>
-      <c r="E80">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>0.2974115086205969</v>
-      </c>
-      <c r="C81" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" t="s">
-        <v>342</v>
-      </c>
-      <c r="E81">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>103.412076</v>
-      </c>
-      <c r="C82" t="s">
-        <v>224</v>
-      </c>
-      <c r="D82" t="s">
-        <v>343</v>
-      </c>
-      <c r="E82">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>136.483499986547</v>
-      </c>
-      <c r="C83" t="s">
-        <v>225</v>
-      </c>
-      <c r="D83" t="s">
-        <v>344</v>
-      </c>
-      <c r="E83">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>40.97544493910021</v>
-      </c>
-      <c r="C84" t="s">
-        <v>226</v>
-      </c>
-      <c r="D84" t="s">
-        <v>345</v>
-      </c>
-      <c r="E84">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>1456.01938306187</v>
-      </c>
-      <c r="C85" t="s">
-        <v>227</v>
-      </c>
-      <c r="D85" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>5.721841552964469</v>
+      </c>
+      <c r="C91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" t="s">
         <v>346</v>
       </c>
-      <c r="E85">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>1.00353202407101</v>
-      </c>
-      <c r="C86" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" t="s">
-        <v>289</v>
-      </c>
-      <c r="E86">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>0.1866190509020389</v>
-      </c>
-      <c r="C87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D87" t="s">
-        <v>347</v>
-      </c>
-      <c r="E87">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>775.5610925021471</v>
-      </c>
-      <c r="C88" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" t="s">
-        <v>348</v>
-      </c>
-      <c r="E88">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>0.417096855708647</v>
-      </c>
-      <c r="C89" t="s">
-        <v>230</v>
-      </c>
-      <c r="D89" t="s">
-        <v>349</v>
-      </c>
-      <c r="E89">
-        <v>0.0024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>0.67805244642179</v>
-      </c>
-      <c r="C90" t="s">
-        <v>231</v>
-      </c>
-      <c r="D90" t="s">
-        <v>350</v>
-      </c>
-      <c r="E90">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>50.4303490949173</v>
-      </c>
-      <c r="C91" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" t="s">
-        <v>351</v>
-      </c>
       <c r="E91">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.41</v>
+      </c>
+      <c r="F91">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>5.721841552964469</v>
       </c>
       <c r="C92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92" t="s">
+        <v>347</v>
+      </c>
+      <c r="E92">
+        <v>0.42</v>
+      </c>
+      <c r="F92">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0.450245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" t="s">
+        <v>284</v>
+      </c>
+      <c r="E93">
+        <v>0.55</v>
+      </c>
+      <c r="F93">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0.864174</v>
+      </c>
+      <c r="C94" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" t="s">
+        <v>284</v>
+      </c>
+      <c r="E94">
+        <v>1.05</v>
+      </c>
+      <c r="F94">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0.491934</v>
+      </c>
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" t="s">
+        <v>284</v>
+      </c>
+      <c r="E95">
+        <v>0.6</v>
+      </c>
+      <c r="F95">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>3.94702364488783</v>
+      </c>
+      <c r="C96" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" t="s">
+        <v>348</v>
+      </c>
+      <c r="E96">
+        <v>0.45</v>
+      </c>
+      <c r="F96">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>1101.03781847766</v>
+      </c>
+      <c r="C97" t="s">
         <v>233</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D97" t="s">
+        <v>349</v>
+      </c>
+      <c r="E97">
+        <v>0.29</v>
+      </c>
+      <c r="F97">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>8.01436960654148</v>
+      </c>
+      <c r="C98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s">
+        <v>350</v>
+      </c>
+      <c r="E98">
+        <v>0.52</v>
+      </c>
+      <c r="F98">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>9.505202000000001</v>
+      </c>
+      <c r="C99" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" t="s">
+        <v>351</v>
+      </c>
+      <c r="E99">
+        <v>0.48</v>
+      </c>
+      <c r="F99">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.951004763637921</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" t="s">
+        <v>319</v>
+      </c>
+      <c r="E100">
+        <v>0.951004763637921</v>
+      </c>
+      <c r="F100">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>212.437827427381</v>
+      </c>
+      <c r="C101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" t="s">
+        <v>287</v>
+      </c>
+      <c r="E101">
+        <v>0.39</v>
+      </c>
+      <c r="F101">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0.5765902573023221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102">
+        <v>0.7</v>
+      </c>
+      <c r="F102">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>401.706612616841</v>
+      </c>
+      <c r="C103" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" t="s">
         <v>352</v>
       </c>
-      <c r="E92">
+      <c r="E103">
+        <v>0.24</v>
+      </c>
+      <c r="F103">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>0.340944046315761</v>
+      </c>
+      <c r="C104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>284</v>
+      </c>
+      <c r="E104">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>5.721841552964469</v>
-      </c>
-      <c r="C93" t="s">
-        <v>234</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="F104">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>11.3542499826593</v>
+      </c>
+      <c r="C105" t="s">
+        <v>237</v>
+      </c>
+      <c r="D105" t="s">
         <v>353</v>
       </c>
-      <c r="E93">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>0.450245</v>
-      </c>
-      <c r="C94" t="s">
-        <v>171</v>
-      </c>
-      <c r="D94" t="s">
-        <v>290</v>
-      </c>
-      <c r="E94">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>0.864174</v>
-      </c>
-      <c r="C95" t="s">
-        <v>171</v>
-      </c>
-      <c r="D95" t="s">
-        <v>290</v>
-      </c>
-      <c r="E95">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>0.491934</v>
-      </c>
-      <c r="C96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D96" t="s">
-        <v>290</v>
-      </c>
-      <c r="E96">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>3.94702364488783</v>
-      </c>
-      <c r="C97" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E105">
+        <v>0.31</v>
+      </c>
+      <c r="F105">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>16.4861845606784</v>
+      </c>
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" t="s">
         <v>354</v>
       </c>
-      <c r="E97">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>1101.03781847766</v>
-      </c>
-      <c r="C98" t="s">
-        <v>236</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E106">
+        <v>0.4</v>
+      </c>
+      <c r="F106">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>277.412807983172</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
         <v>355</v>
       </c>
-      <c r="E98">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>8.01436960654148</v>
-      </c>
-      <c r="C99" t="s">
-        <v>237</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E107">
+        <v>0.35</v>
+      </c>
+      <c r="F107">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>1.59634880561452</v>
+      </c>
+      <c r="C108" t="s">
+        <v>240</v>
+      </c>
+      <c r="D108" t="s">
         <v>356</v>
       </c>
-      <c r="E99">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>9.505202000000001</v>
-      </c>
-      <c r="C100" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E108">
+        <v>0.39</v>
+      </c>
+      <c r="F108">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>7.11743151547225</v>
+      </c>
+      <c r="C109" t="s">
+        <v>241</v>
+      </c>
+      <c r="D109" t="s">
         <v>357</v>
       </c>
-      <c r="E100">
+      <c r="E109">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>0.951004763637921</v>
-      </c>
-      <c r="C101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" t="s">
-        <v>325</v>
-      </c>
-      <c r="E101">
-        <v>0.951004763637921</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>212.437827427381</v>
-      </c>
-      <c r="C102" t="s">
-        <v>174</v>
-      </c>
-      <c r="D102" t="s">
-        <v>293</v>
-      </c>
-      <c r="E102">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>0.5765902573023221</v>
-      </c>
-      <c r="C103" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103" t="s">
-        <v>290</v>
-      </c>
-      <c r="E103">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>401.706612616841</v>
-      </c>
-      <c r="C104" t="s">
-        <v>239</v>
-      </c>
-      <c r="D104" t="s">
-        <v>358</v>
-      </c>
-      <c r="E104">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>0.340944046315761</v>
-      </c>
-      <c r="C105" t="s">
-        <v>171</v>
-      </c>
-      <c r="D105" t="s">
-        <v>290</v>
-      </c>
-      <c r="E105">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>11.3542499826593</v>
-      </c>
-      <c r="C106" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106" t="s">
-        <v>359</v>
-      </c>
-      <c r="E106">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>16.4861845606784</v>
-      </c>
-      <c r="C107" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" t="s">
-        <v>360</v>
-      </c>
-      <c r="E107">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>277.412807983172</v>
-      </c>
-      <c r="C108" t="s">
-        <v>242</v>
-      </c>
-      <c r="D108" t="s">
-        <v>361</v>
-      </c>
-      <c r="E108">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>1.59634880561452</v>
-      </c>
-      <c r="C109" t="s">
-        <v>243</v>
-      </c>
-      <c r="D109" t="s">
-        <v>362</v>
-      </c>
-      <c r="E109">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>7.11743151547225</v>
       </c>
       <c r="C110" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" t="s">
+        <v>347</v>
+      </c>
+      <c r="E110">
+        <v>0.52</v>
+      </c>
+      <c r="F110">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>253.799695383855</v>
+      </c>
+      <c r="C111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D111" t="s">
+        <v>287</v>
+      </c>
+      <c r="E111">
+        <v>0.47</v>
+      </c>
+      <c r="F111">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>135.136439097495</v>
+      </c>
+      <c r="C112" t="s">
+        <v>242</v>
+      </c>
+      <c r="D112" t="s">
+        <v>358</v>
+      </c>
+      <c r="E112">
+        <v>0.33</v>
+      </c>
+      <c r="F112">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>11.221066511064</v>
+      </c>
+      <c r="C113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" t="s">
+        <v>359</v>
+      </c>
+      <c r="E113">
+        <v>0.32</v>
+      </c>
+      <c r="F113">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0.794891</v>
+      </c>
+      <c r="C114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114" t="s">
+        <v>284</v>
+      </c>
+      <c r="E114">
+        <v>0.96</v>
+      </c>
+      <c r="F114">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>9.30294</v>
+      </c>
+      <c r="C115" t="s">
         <v>244</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D115" t="s">
+        <v>360</v>
+      </c>
+      <c r="E115">
+        <v>1.11</v>
+      </c>
+      <c r="F115">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>33.8845949857364</v>
+      </c>
+      <c r="C116" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" t="s">
+        <v>361</v>
+      </c>
+      <c r="E116">
+        <v>0.29</v>
+      </c>
+      <c r="F116">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>1.08627842398814</v>
+      </c>
+      <c r="C117" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" t="s">
+        <v>283</v>
+      </c>
+      <c r="E117">
+        <v>0.84</v>
+      </c>
+      <c r="F117">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>1.45911</v>
+      </c>
+      <c r="C118" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118" t="s">
+        <v>362</v>
+      </c>
+      <c r="E118">
+        <v>1.04</v>
+      </c>
+      <c r="F118">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0.206942462946532</v>
+      </c>
+      <c r="C119" t="s">
+        <v>247</v>
+      </c>
+      <c r="D119" t="s">
         <v>363</v>
       </c>
-      <c r="E110">
+      <c r="E119">
+        <v>0.54</v>
+      </c>
+      <c r="F119">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>35.79767703586729</v>
+      </c>
+      <c r="C120" t="s">
+        <v>248</v>
+      </c>
+      <c r="D120" t="s">
+        <v>364</v>
+      </c>
+      <c r="E120">
+        <v>0.23</v>
+      </c>
+      <c r="F120">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>0.478862212445632</v>
+      </c>
+      <c r="C121" t="s">
+        <v>249</v>
+      </c>
+      <c r="D121" t="s">
+        <v>365</v>
+      </c>
+      <c r="E121">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>7.11743151547225</v>
-      </c>
-      <c r="C111" t="s">
-        <v>234</v>
-      </c>
-      <c r="D111" t="s">
-        <v>353</v>
-      </c>
-      <c r="E111">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>253.799695383855</v>
-      </c>
-      <c r="C112" t="s">
-        <v>174</v>
-      </c>
-      <c r="D112" t="s">
-        <v>293</v>
-      </c>
-      <c r="E112">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>135.136439097495</v>
-      </c>
-      <c r="C113" t="s">
-        <v>245</v>
-      </c>
-      <c r="D113" t="s">
-        <v>364</v>
-      </c>
-      <c r="E113">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>11.221066511064</v>
-      </c>
-      <c r="C114" t="s">
-        <v>246</v>
-      </c>
-      <c r="D114" t="s">
-        <v>365</v>
-      </c>
-      <c r="E114">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>0.794891</v>
-      </c>
-      <c r="C115" t="s">
-        <v>171</v>
-      </c>
-      <c r="D115" t="s">
-        <v>290</v>
-      </c>
-      <c r="E115">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>9.30294</v>
-      </c>
-      <c r="C116" t="s">
-        <v>247</v>
-      </c>
-      <c r="D116" t="s">
-        <v>366</v>
-      </c>
-      <c r="E116">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>33.8845949857364</v>
-      </c>
-      <c r="C117" t="s">
-        <v>248</v>
-      </c>
-      <c r="D117" t="s">
-        <v>367</v>
-      </c>
-      <c r="E117">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>1.08627842398814</v>
-      </c>
-      <c r="C118" t="s">
-        <v>170</v>
-      </c>
-      <c r="D118" t="s">
-        <v>289</v>
-      </c>
-      <c r="E118">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>1.45911</v>
-      </c>
-      <c r="C119" t="s">
-        <v>249</v>
-      </c>
-      <c r="D119" t="s">
-        <v>368</v>
-      </c>
-      <c r="E119">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>0.206942462946532</v>
-      </c>
-      <c r="C120" t="s">
-        <v>250</v>
-      </c>
-      <c r="D120" t="s">
-        <v>369</v>
-      </c>
-      <c r="E120">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>35.79767703586729</v>
-      </c>
-      <c r="C121" t="s">
-        <v>251</v>
-      </c>
-      <c r="D121" t="s">
-        <v>370</v>
-      </c>
-      <c r="E121">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>0.478862212445632</v>
       </c>
       <c r="C122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" t="s">
+        <v>319</v>
+      </c>
+      <c r="E122">
+        <v>0.478862212445632</v>
+      </c>
+      <c r="F122">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1.73568174505867</v>
+      </c>
+      <c r="C123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" t="s">
+        <v>366</v>
+      </c>
+      <c r="E123">
+        <v>0.45</v>
+      </c>
+      <c r="F123">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>19.404986883789</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" t="s">
+        <v>367</v>
+      </c>
+      <c r="E124">
+        <v>0.4</v>
+      </c>
+      <c r="F124">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0.8117700376963991</v>
+      </c>
+      <c r="C125" t="s">
+        <v>203</v>
+      </c>
+      <c r="D125" t="s">
+        <v>319</v>
+      </c>
+      <c r="E125">
+        <v>0.8117700376963991</v>
+      </c>
+      <c r="F125">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2.10746125115928</v>
+      </c>
+      <c r="C126" t="s">
         <v>252</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D126" t="s">
+        <v>368</v>
+      </c>
+      <c r="E126">
+        <v>0.59</v>
+      </c>
+      <c r="F126">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1.811159</v>
+      </c>
+      <c r="C127" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" t="s">
+        <v>369</v>
+      </c>
+      <c r="E127">
+        <v>0.49</v>
+      </c>
+      <c r="F127">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0.912016190882154</v>
+      </c>
+      <c r="C128" t="s">
+        <v>203</v>
+      </c>
+      <c r="D128" t="s">
+        <v>319</v>
+      </c>
+      <c r="E128">
+        <v>0.912016190882154</v>
+      </c>
+      <c r="F128">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0.574206</v>
+      </c>
+      <c r="C129" t="s">
+        <v>168</v>
+      </c>
+      <c r="D129" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129">
+        <v>0.7</v>
+      </c>
+      <c r="F129">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2551.04021521804</v>
+      </c>
+      <c r="C130" t="s">
+        <v>254</v>
+      </c>
+      <c r="D130" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130">
+        <v>0.38</v>
+      </c>
+      <c r="F130">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2.40352989003426</v>
+      </c>
+      <c r="C131" t="s">
+        <v>255</v>
+      </c>
+      <c r="D131" t="s">
         <v>371</v>
       </c>
-      <c r="E122">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>120</v>
-      </c>
-      <c r="B123">
-        <v>0.478862212445632</v>
-      </c>
-      <c r="C123" t="s">
-        <v>206</v>
-      </c>
-      <c r="D123" t="s">
-        <v>325</v>
-      </c>
-      <c r="E123">
-        <v>0.478862212445632</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>121</v>
-      </c>
-      <c r="B124">
-        <v>1.73568174505867</v>
-      </c>
-      <c r="C124" t="s">
-        <v>253</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E131">
+        <v>0.66</v>
+      </c>
+      <c r="F131">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>24.247943</v>
+      </c>
+      <c r="C132" t="s">
+        <v>256</v>
+      </c>
+      <c r="D132" t="s">
         <v>372</v>
       </c>
-      <c r="E124">
+      <c r="E132">
+        <v>0.34</v>
+      </c>
+      <c r="F132">
         <v>0.45</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125">
-        <v>19.404986883789</v>
-      </c>
-      <c r="C125" t="s">
-        <v>254</v>
-      </c>
-      <c r="D125" t="s">
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>317.182454956289</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+      <c r="D133" t="s">
         <v>373</v>
       </c>
-      <c r="E125">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126">
-        <v>0.8117700376963991</v>
-      </c>
-      <c r="C126" t="s">
-        <v>206</v>
-      </c>
-      <c r="D126" t="s">
-        <v>325</v>
-      </c>
-      <c r="E126">
-        <v>0.8117700376963991</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127">
-        <v>2.10746125115928</v>
-      </c>
-      <c r="C127" t="s">
-        <v>255</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E133">
+        <v>0.32</v>
+      </c>
+      <c r="F133">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1.76944612839592</v>
+      </c>
+      <c r="C134" t="s">
+        <v>258</v>
+      </c>
+      <c r="D134" t="s">
         <v>374</v>
       </c>
-      <c r="E127">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128">
-        <v>1.811159</v>
-      </c>
-      <c r="C128" t="s">
-        <v>256</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E134">
+        <v>0.47</v>
+      </c>
+      <c r="F134">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>239.12275993346</v>
+      </c>
+      <c r="C135" t="s">
+        <v>171</v>
+      </c>
+      <c r="D135" t="s">
+        <v>287</v>
+      </c>
+      <c r="E135">
+        <v>0.44</v>
+      </c>
+      <c r="F135">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>0.875475197620001</v>
+      </c>
+      <c r="C136" t="s">
+        <v>259</v>
+      </c>
+      <c r="D136" t="s">
         <v>375</v>
       </c>
-      <c r="E128">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129">
-        <v>0.912016190882154</v>
-      </c>
-      <c r="C129" t="s">
-        <v>206</v>
-      </c>
-      <c r="D129" t="s">
-        <v>325</v>
-      </c>
-      <c r="E129">
-        <v>0.912016190882154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130">
-        <v>0.574206</v>
-      </c>
-      <c r="C130" t="s">
-        <v>171</v>
-      </c>
-      <c r="D130" t="s">
-        <v>290</v>
-      </c>
-      <c r="E130">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131">
-        <v>2551.04021521804</v>
-      </c>
-      <c r="C131" t="s">
-        <v>257</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="E136">
+        <v>0.66</v>
+      </c>
+      <c r="F136">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>6.97704964624406</v>
+      </c>
+      <c r="C137" t="s">
+        <v>260</v>
+      </c>
+      <c r="D137" t="s">
         <v>376</v>
       </c>
-      <c r="E131">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132">
-        <v>2.40352989003426</v>
-      </c>
-      <c r="C132" t="s">
-        <v>258</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="E137">
+        <v>0.87</v>
+      </c>
+      <c r="F137">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2649.0305251514</v>
+      </c>
+      <c r="C138" t="s">
+        <v>261</v>
+      </c>
+      <c r="D138" t="s">
         <v>377</v>
       </c>
-      <c r="E132">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133">
-        <v>24.247943</v>
-      </c>
-      <c r="C133" t="s">
-        <v>259</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E138">
+        <v>0.26</v>
+      </c>
+      <c r="F138">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0.456906578505361</v>
+      </c>
+      <c r="C139" t="s">
+        <v>262</v>
+      </c>
+      <c r="D139" t="s">
         <v>378</v>
       </c>
-      <c r="E133">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134">
-        <v>317.182454956289</v>
-      </c>
-      <c r="C134" t="s">
-        <v>260</v>
-      </c>
-      <c r="D134" t="s">
-        <v>379</v>
-      </c>
-      <c r="E134">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135">
-        <v>1.76944612839592</v>
-      </c>
-      <c r="C135" t="s">
-        <v>261</v>
-      </c>
-      <c r="D135" t="s">
-        <v>380</v>
-      </c>
-      <c r="E135">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136">
-        <v>239.12275993346</v>
-      </c>
-      <c r="C136" t="s">
-        <v>174</v>
-      </c>
-      <c r="D136" t="s">
-        <v>293</v>
-      </c>
-      <c r="E136">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137">
-        <v>0.875475197620001</v>
-      </c>
-      <c r="C137" t="s">
-        <v>262</v>
-      </c>
-      <c r="D137" t="s">
-        <v>381</v>
-      </c>
-      <c r="E137">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138">
-        <v>6.97704964624406</v>
-      </c>
-      <c r="C138" t="s">
-        <v>263</v>
-      </c>
-      <c r="D138" t="s">
-        <v>382</v>
-      </c>
-      <c r="E138">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139">
-        <v>2649.0305251514</v>
-      </c>
-      <c r="C139" t="s">
-        <v>264</v>
-      </c>
-      <c r="D139" t="s">
-        <v>383</v>
-      </c>
       <c r="E139">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>0.052</v>
+      </c>
+      <c r="F139">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>0.456906578505361</v>
       </c>
       <c r="C140" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" t="s">
+        <v>319</v>
+      </c>
+      <c r="E140">
+        <v>0.456906578505361</v>
+      </c>
+      <c r="F140">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.681416995287087</v>
+      </c>
+      <c r="C141" t="s">
+        <v>168</v>
+      </c>
+      <c r="D141" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141">
+        <v>0.83</v>
+      </c>
+      <c r="F141">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>8229.531085861441</v>
+      </c>
+      <c r="C142" t="s">
+        <v>263</v>
+      </c>
+      <c r="D142" t="s">
+        <v>379</v>
+      </c>
+      <c r="E142">
+        <v>14.28</v>
+      </c>
+      <c r="F142">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>8.023819207009479</v>
+      </c>
+      <c r="C143" t="s">
+        <v>264</v>
+      </c>
+      <c r="D143" t="s">
+        <v>380</v>
+      </c>
+      <c r="E143">
+        <v>0.55</v>
+      </c>
+      <c r="F143">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>1.0263656903801</v>
+      </c>
+      <c r="C144" t="s">
+        <v>203</v>
+      </c>
+      <c r="D144" t="s">
+        <v>319</v>
+      </c>
+      <c r="E144">
+        <v>1.0263656903801</v>
+      </c>
+      <c r="F144">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>252.027960292434</v>
+      </c>
+      <c r="C145" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" t="s">
+        <v>302</v>
+      </c>
+      <c r="E145">
+        <v>0.47</v>
+      </c>
+      <c r="F145">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>238.71139332045</v>
+      </c>
+      <c r="C146" t="s">
+        <v>171</v>
+      </c>
+      <c r="D146" t="s">
+        <v>287</v>
+      </c>
+      <c r="E146">
+        <v>0.44</v>
+      </c>
+      <c r="F146">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>12.5736324625292</v>
+      </c>
+      <c r="C147" t="s">
         <v>265</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D147" t="s">
+        <v>381</v>
+      </c>
+      <c r="E147">
+        <v>0.4</v>
+      </c>
+      <c r="F147">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>2.3514373614881</v>
+      </c>
+      <c r="C148" t="s">
+        <v>266</v>
+      </c>
+      <c r="D148" t="s">
+        <v>382</v>
+      </c>
+      <c r="E148">
+        <v>0.21</v>
+      </c>
+      <c r="F148">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.420643991821992</v>
+      </c>
+      <c r="C149" t="s">
+        <v>203</v>
+      </c>
+      <c r="D149" t="s">
+        <v>319</v>
+      </c>
+      <c r="E149">
+        <v>0.420643991821992</v>
+      </c>
+      <c r="F149">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>4.2990560207373</v>
+      </c>
+      <c r="C150" t="s">
+        <v>267</v>
+      </c>
+      <c r="D150" t="s">
+        <v>383</v>
+      </c>
+      <c r="E150">
+        <v>0.63</v>
+      </c>
+      <c r="F150">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.8667296682716191</v>
+      </c>
+      <c r="C151" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151" t="s">
         <v>384</v>
       </c>
-      <c r="E140">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>137</v>
-      </c>
-      <c r="B141">
-        <v>0.456906578505361</v>
-      </c>
-      <c r="C141" t="s">
-        <v>206</v>
-      </c>
-      <c r="D141" t="s">
-        <v>325</v>
-      </c>
-      <c r="E141">
-        <v>0.456906578505361</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142">
-        <v>0.681416995287087</v>
-      </c>
-      <c r="C142" t="s">
-        <v>171</v>
-      </c>
-      <c r="D142" t="s">
-        <v>290</v>
-      </c>
-      <c r="E142">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143">
-        <v>8229.531085861441</v>
-      </c>
-      <c r="C143" t="s">
-        <v>266</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="E151">
+        <v>0.32</v>
+      </c>
+      <c r="F151">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>2.113114</v>
+      </c>
+      <c r="C152" t="s">
+        <v>269</v>
+      </c>
+      <c r="D152" t="s">
         <v>385</v>
       </c>
-      <c r="E143">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>140</v>
-      </c>
-      <c r="B144">
-        <v>2.74870090935574</v>
-      </c>
-      <c r="C144" t="s">
-        <v>267</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E152">
+        <v>0.25</v>
+      </c>
+      <c r="F152">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>1.3059942981698</v>
+      </c>
+      <c r="C153" t="s">
+        <v>167</v>
+      </c>
+      <c r="D153" t="s">
+        <v>283</v>
+      </c>
+      <c r="E153">
+        <v>1.01</v>
+      </c>
+      <c r="F153">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>1299.45978146478</v>
+      </c>
+      <c r="C154" t="s">
+        <v>270</v>
+      </c>
+      <c r="D154" t="s">
         <v>386</v>
       </c>
-      <c r="E144">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>141</v>
-      </c>
-      <c r="B145">
-        <v>0.568426</v>
-      </c>
-      <c r="C145" t="s">
-        <v>171</v>
-      </c>
-      <c r="D145" t="s">
-        <v>290</v>
-      </c>
-      <c r="E145">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>142</v>
-      </c>
-      <c r="B146">
-        <v>8.902761</v>
-      </c>
-      <c r="C146" t="s">
-        <v>268</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E154">
+        <v>0.37</v>
+      </c>
+      <c r="F154">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7.069492950726779</v>
+      </c>
+      <c r="C155" t="s">
+        <v>271</v>
+      </c>
+      <c r="D155" t="s">
         <v>387</v>
       </c>
-      <c r="E146">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147">
-        <v>1.44177351925059</v>
-      </c>
-      <c r="C147" t="s">
-        <v>269</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E155">
+        <v>0.26</v>
+      </c>
+      <c r="F155">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>25.3512988749765</v>
+      </c>
+      <c r="C156" t="s">
+        <v>272</v>
+      </c>
+      <c r="D156" t="s">
         <v>388</v>
       </c>
-      <c r="E147">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
-        <v>144</v>
-      </c>
-      <c r="B148">
-        <v>8.023819207009479</v>
-      </c>
-      <c r="C148" t="s">
-        <v>270</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="E156">
+        <v>0.58</v>
+      </c>
+      <c r="F156">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" t="s">
+        <v>319</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>2085.54845778662</v>
+      </c>
+      <c r="C158" t="s">
+        <v>273</v>
+      </c>
+      <c r="D158" t="s">
         <v>389</v>
       </c>
-      <c r="E148">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>145</v>
-      </c>
-      <c r="B149">
-        <v>1.0263656903801</v>
-      </c>
-      <c r="C149" t="s">
-        <v>206</v>
-      </c>
-      <c r="D149" t="s">
-        <v>325</v>
-      </c>
-      <c r="E149">
-        <v>1.0263656903801</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150">
-        <v>252.027960292434</v>
-      </c>
-      <c r="C150" t="s">
-        <v>189</v>
-      </c>
-      <c r="D150" t="s">
-        <v>308</v>
-      </c>
-      <c r="E150">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>147</v>
-      </c>
-      <c r="B151">
-        <v>238.71139332045</v>
-      </c>
-      <c r="C151" t="s">
-        <v>174</v>
-      </c>
-      <c r="D151" t="s">
-        <v>293</v>
-      </c>
-      <c r="E151">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152">
-        <v>12.5736324625292</v>
-      </c>
-      <c r="C152" t="s">
-        <v>271</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="E158">
+        <v>0.2</v>
+      </c>
+      <c r="F158">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>6.65256591249346</v>
+      </c>
+      <c r="C159" t="s">
+        <v>231</v>
+      </c>
+      <c r="D159" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159">
+        <v>0.48</v>
+      </c>
+      <c r="F159">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>4.641657434116651</v>
+      </c>
+      <c r="C160" t="s">
+        <v>274</v>
+      </c>
+      <c r="D160" t="s">
         <v>390</v>
-      </c>
-      <c r="E152">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153">
-        <v>2.3514373614881</v>
-      </c>
-      <c r="C153" t="s">
-        <v>272</v>
-      </c>
-      <c r="D153" t="s">
-        <v>391</v>
-      </c>
-      <c r="E153">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>150</v>
-      </c>
-      <c r="B154">
-        <v>0.420643991821992</v>
-      </c>
-      <c r="C154" t="s">
-        <v>206</v>
-      </c>
-      <c r="D154" t="s">
-        <v>325</v>
-      </c>
-      <c r="E154">
-        <v>0.420643991821992</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155">
-        <v>4.2990560207373</v>
-      </c>
-      <c r="C155" t="s">
-        <v>273</v>
-      </c>
-      <c r="D155" t="s">
-        <v>392</v>
-      </c>
-      <c r="E155">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156">
-        <v>0.8667296682716191</v>
-      </c>
-      <c r="C156" t="s">
-        <v>274</v>
-      </c>
-      <c r="D156" t="s">
-        <v>393</v>
-      </c>
-      <c r="E156">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>153</v>
-      </c>
-      <c r="B157">
-        <v>2.113114</v>
-      </c>
-      <c r="C157" t="s">
-        <v>275</v>
-      </c>
-      <c r="D157" t="s">
-        <v>394</v>
-      </c>
-      <c r="E157">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>154</v>
-      </c>
-      <c r="B158">
-        <v>1.3059942981698</v>
-      </c>
-      <c r="C158" t="s">
-        <v>170</v>
-      </c>
-      <c r="D158" t="s">
-        <v>289</v>
-      </c>
-      <c r="E158">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>155</v>
-      </c>
-      <c r="B159">
-        <v>1299.45978146478</v>
-      </c>
-      <c r="C159" t="s">
-        <v>276</v>
-      </c>
-      <c r="D159" t="s">
-        <v>395</v>
-      </c>
-      <c r="E159">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>156</v>
-      </c>
-      <c r="B160">
-        <v>7.069492950726779</v>
-      </c>
-      <c r="C160" t="s">
-        <v>277</v>
-      </c>
-      <c r="D160" t="s">
-        <v>396</v>
       </c>
       <c r="E160">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>157</v>
-      </c>
-      <c r="B161">
-        <v>25.3512988749765</v>
-      </c>
-      <c r="C161" t="s">
-        <v>278</v>
-      </c>
-      <c r="D161" t="s">
-        <v>397</v>
-      </c>
-      <c r="E161">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>158</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
-        <v>206</v>
-      </c>
-      <c r="D162" t="s">
-        <v>325</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>159</v>
-      </c>
-      <c r="B163">
-        <v>2085.54845778662</v>
-      </c>
-      <c r="C163" t="s">
-        <v>279</v>
-      </c>
-      <c r="D163" t="s">
-        <v>398</v>
-      </c>
-      <c r="E163">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>160</v>
-      </c>
-      <c r="B164">
-        <v>6.65256591249346</v>
-      </c>
-      <c r="C164" t="s">
-        <v>234</v>
-      </c>
-      <c r="D164" t="s">
-        <v>353</v>
-      </c>
-      <c r="E164">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>161</v>
-      </c>
-      <c r="B165">
-        <v>4.641657434116651</v>
-      </c>
-      <c r="C165" t="s">
-        <v>280</v>
-      </c>
-      <c r="D165" t="s">
-        <v>399</v>
-      </c>
-      <c r="E165">
-        <v>0.26</v>
+      <c r="F160">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="403">
   <si>
     <t>Country</t>
   </si>
@@ -160,6 +160,9 @@
     <t>czech republic</t>
   </si>
   <si>
+    <t>germany</t>
+  </si>
+  <si>
     <t>djibouti</t>
   </si>
   <si>
@@ -439,6 +442,18 @@
     <t>somalia</t>
   </si>
   <si>
+    <t>suriname</t>
+  </si>
+  <si>
+    <t>slovenia</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>sint maarten (dutch part)</t>
+  </si>
+  <si>
     <t>seychelles</t>
   </si>
   <si>
@@ -808,6 +823,15 @@
     <t>Somali Shilling</t>
   </si>
   <si>
+    <t>Surinam Dollar</t>
+  </si>
+  <si>
+    <t>Swedish Krona</t>
+  </si>
+  <si>
+    <t>Netherlands Antillean Guilder</t>
+  </si>
+  <si>
     <t>Seychelles Rupee</t>
   </si>
   <si>
@@ -1156,6 +1180,15 @@
     <t>SOS</t>
   </si>
   <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
     <t>SCR</t>
   </si>
   <si>
@@ -1187,6 +1220,9 @@
   </si>
   <si>
     <t>ZMW</t>
+  </si>
+  <si>
+    <t>0.87</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1578,16 +1614,16 @@
         <v>1.35068964958191</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E2">
         <v>0.75</v>
       </c>
       <c r="F2">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1598,16 +1634,16 @@
         <v>17.9144826699909</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E3">
         <v>0.23</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1618,16 +1654,16 @@
         <v>146.167167826781</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E4">
         <v>0.23</v>
       </c>
       <c r="F4">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1638,13 +1674,13 @@
         <v>41.3423914138531</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E5">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F5">
         <v>0.54</v>
@@ -1658,16 +1694,16 @@
         <v>2.25850307596397</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E6">
         <v>0.61</v>
       </c>
       <c r="F6">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1678,16 +1714,16 @@
         <v>20.7139578408443</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E7">
         <v>0.22</v>
       </c>
       <c r="F7">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1698,16 +1734,16 @@
         <v>155.770479651178</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E8">
         <v>0.3</v>
       </c>
       <c r="F8">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1718,16 +1754,16 @@
         <v>2.01945320919558</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E9">
         <v>0.75</v>
       </c>
       <c r="F9">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1738,16 +1774,16 @@
         <v>1.461587</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E10">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="F10">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1758,16 +1794,16 @@
         <v>0.759962</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E11">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1778,16 +1814,16 @@
         <v>0.541783029023867</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E12">
         <v>0.32</v>
       </c>
       <c r="F12">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1798,16 +1834,16 @@
         <v>614.273901861231</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E13">
         <v>0.31</v>
       </c>
       <c r="F13">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1818,16 +1854,16 @@
         <v>0.7540249999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E14">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F14">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1838,16 +1874,16 @@
         <v>208.14828767688</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E15">
         <v>0.38</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1858,16 +1894,16 @@
         <v>202.684664333737</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E16">
         <v>0.37</v>
       </c>
       <c r="F16">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1878,16 +1914,16 @@
         <v>31.4128719205924</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E17">
         <v>0.37</v>
       </c>
       <c r="F17">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1898,16 +1934,16 @@
         <v>0.6985512891981379</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E18">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="F18">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1918,16 +1954,16 @@
         <v>0.188021618496962</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E19">
         <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1938,13 +1974,13 @@
         <v>0.674721776333022</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E20">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="F20">
         <v>0.55</v>
@@ -1958,16 +1994,16 @@
         <v>0.69701659405586</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E21">
         <v>0.28</v>
       </c>
       <c r="F21">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1978,16 +2014,16 @@
         <v>1.31658399660205</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E22">
         <v>0.65</v>
       </c>
       <c r="F22">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1998,16 +2034,16 @@
         <v>1.37078595612015</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E23">
         <v>1.37</v>
       </c>
       <c r="F23">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2018,16 +2054,16 @@
         <v>2.69410512565797</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E24">
         <v>0.39</v>
       </c>
       <c r="F24">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2038,13 +2074,13 @@
         <v>2.24738365412163</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E25">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F25">
         <v>0.59</v>
@@ -2058,16 +2094,16 @@
         <v>2.22256686623555</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E26">
         <v>1.1</v>
       </c>
       <c r="F26">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2078,16 +2114,16 @@
         <v>0.6539719595070339</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E27">
         <v>0.49</v>
       </c>
       <c r="F27">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2098,13 +2134,13 @@
         <v>18.9001286950754</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E28">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="F28">
         <v>0.34</v>
@@ -2118,13 +2154,13 @@
         <v>18.9001286950754</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E29">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="F29">
         <v>0.34</v>
@@ -2138,16 +2174,16 @@
         <v>4.615553083753571</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E30">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="F30">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2158,16 +2194,16 @@
         <v>277.852867490644</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E31">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F31">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2178,16 +2214,16 @@
         <v>1.198088</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E32">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F32">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2198,16 +2234,16 @@
         <v>1.143836</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E33">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="F33">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2218,13 +2254,13 @@
         <v>420.903055</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D34" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E34">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F34">
         <v>0.76</v>
@@ -2238,13 +2274,13 @@
         <v>420.903055</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E35">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F35">
         <v>0.76</v>
@@ -2258,16 +2294,16 @@
         <v>4.20011786862713</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D36" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E36">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F36">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2278,16 +2314,16 @@
         <v>232.218111523829</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E37">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="F37">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2298,16 +2334,16 @@
         <v>1351.775746</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E38">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F38">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2318,16 +2354,16 @@
         <v>188.465816580834</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E39">
         <v>0.46</v>
       </c>
       <c r="F39">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2338,16 +2374,16 @@
         <v>47.39553801356399</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E40">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F40">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2358,16 +2394,16 @@
         <v>341.441239</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E41">
         <v>0.55</v>
       </c>
       <c r="F41">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2378,10 +2414,10 @@
         <v>0.321938711455632</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E42">
         <v>0.013</v>
@@ -2398,16 +2434,16 @@
         <v>0.977497020934353</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E43">
         <v>1.17</v>
       </c>
       <c r="F43">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2418,13 +2454,13 @@
         <v>0.608703010927457</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E44">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="F44">
         <v>0.97</v>
@@ -2438,16 +2474,16 @@
         <v>12.843495</v>
       </c>
       <c r="C45" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E45">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F45">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2455,19 +2491,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>105.005967896123</v>
+        <v>0.744679</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>315</v>
-      </c>
-      <c r="E46">
-        <v>0.59</v>
-      </c>
-      <c r="F46">
-        <v>0.77</v>
+        <v>292</v>
+      </c>
+      <c r="E46" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2475,19 +2508,19 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>1.75970417134687</v>
+        <v>105.005967896123</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="E47">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="F47">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2495,19 +2528,19 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6.66035</v>
+        <v>1.75970417134687</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="E48">
-        <v>1.09</v>
+        <v>0.65</v>
       </c>
       <c r="F48">
-        <v>1.43</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2515,19 +2548,19 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>22.09468557324831</v>
+        <v>6.66035</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E49">
-        <v>0.39</v>
+        <v>1.07</v>
       </c>
       <c r="F49">
-        <v>0.51</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2535,19 +2568,19 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>39.4753858871813</v>
+        <v>22.09468557324831</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E50">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="F50">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2555,19 +2588,19 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.520580052113819</v>
+        <v>39.4753858871813</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E51">
-        <v>0.520580052113819</v>
+        <v>0.29</v>
       </c>
       <c r="F51">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2575,19 +2608,19 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.624484</v>
+        <v>0.520580052113819</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="E52">
-        <v>0.76</v>
+        <v>0.520580052113819</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2595,19 +2628,19 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.5329</v>
+        <v>0.624484</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E53">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="F53">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2615,19 +2648,19 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>10.3494460595822</v>
+        <v>0.5329</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="E54">
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
       <c r="F54">
-        <v>0.31</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2635,19 +2668,19 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.8545879999999999</v>
+        <v>10.3494460595822</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="E55">
-        <v>1.04</v>
+        <v>0.24</v>
       </c>
       <c r="F55">
-        <v>1.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2655,19 +2688,19 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.933689773974448</v>
+        <v>0.8545879999999999</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="E56">
-        <v>0.46</v>
+        <v>1.02</v>
       </c>
       <c r="F56">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2675,19 +2708,19 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.740525</v>
+        <v>0.933689773974448</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="E57">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="F57">
-        <v>1.18</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2695,19 +2728,19 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>291.498912218778</v>
+        <v>0.740525</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E58">
-        <v>0.54</v>
+        <v>0.88</v>
       </c>
       <c r="F58">
-        <v>0.71</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2715,19 +2748,19 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.716264</v>
+        <v>291.498912218778</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E59">
-        <v>1.01</v>
+        <v>0.53</v>
       </c>
       <c r="F59">
-        <v>1.32</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2735,19 +2768,19 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.8456104377652759</v>
+        <v>0.716264</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E60">
-        <v>0.27</v>
+        <v>0.99</v>
       </c>
       <c r="F60">
-        <v>0.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2755,19 +2788,19 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>3305.07540389528</v>
+        <v>0.8456104377652759</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E61">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="F61">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2775,19 +2808,19 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>196.665273716979</v>
+        <v>3305.07540389528</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="E62">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="F62">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2795,19 +2828,19 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>245.860160205986</v>
+        <v>196.665273716979</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E63">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="F63">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2815,19 +2848,19 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.545546</v>
+        <v>245.860160205986</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="D64" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="E64">
-        <v>0.66</v>
+        <v>0.45</v>
       </c>
       <c r="F64">
-        <v>0.86</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2835,19 +2868,19 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>1.64017111055948</v>
+        <v>0.545546</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E65">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="F65">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2855,19 +2888,19 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>3.94233344405393</v>
+        <v>1.64017111055948</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="E66">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="F66">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2875,19 +2908,19 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>100.876253504271</v>
+        <v>3.94233344405393</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E67">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="F67">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2895,19 +2928,19 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>10.5504895992806</v>
+        <v>100.876253504271</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E68">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="F68">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2915,19 +2948,19 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>3.27215211127603</v>
+        <v>10.5504895992806</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E69">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="F69">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2935,19 +2968,19 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>35.2871565136136</v>
+        <v>3.27215211127603</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E70">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="F70">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2955,419 +2988,419 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>145.659085</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D71" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E71">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="F71">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>4743.33744681905</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E72">
-        <v>0.33</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="F72">
-        <v>0.43</v>
+        <v>47.69</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>21.2755038338788</v>
+        <v>145.659085</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="E73">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="F73">
-        <v>0.38</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.816018</v>
+        <v>4743.33744681905</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="E74">
-        <v>0.99</v>
+        <v>0.33</v>
       </c>
       <c r="F74">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>619.478128523479</v>
+        <v>21.2755038338788</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="E75">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="F75">
-        <v>0.55</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>144.108968</v>
+        <v>0.816018</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="E76">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="F76">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>3.686015</v>
+        <v>619.478128523479</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E77">
-        <v>1.14</v>
+        <v>0.42</v>
       </c>
       <c r="F77">
-        <v>1.49</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.669014</v>
+        <v>144.108968</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="E78">
-        <v>0.8100000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="F78">
-        <v>1.06</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>73.0058892307643</v>
+        <v>3.686015</v>
       </c>
       <c r="C79" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E79">
-        <v>0.49</v>
+        <v>1.13</v>
       </c>
       <c r="F79">
-        <v>0.64</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.2974115086205969</v>
+        <v>0.669014</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="E80">
-        <v>0.42</v>
+        <v>0.8</v>
       </c>
       <c r="F80">
-        <v>0.55</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>103.412076</v>
+        <v>73.0058892307643</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D81" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E81">
-        <v>0.9399999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="F81">
-        <v>1.23</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>136.483499986547</v>
+        <v>0.2974115086205969</v>
       </c>
       <c r="C82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E82">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="F82">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>40.97544493910021</v>
+        <v>103.412076</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D83" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E83">
-        <v>0.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F83">
-        <v>0.5</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>1456.01938306187</v>
+        <v>136.483499986547</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E84">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="F84">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>1.00353202407101</v>
+        <v>40.97544493910021</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="E85">
-        <v>0.77</v>
+        <v>0.38</v>
       </c>
       <c r="F85">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.1866190509020389</v>
+        <v>1456.01938306187</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E86">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="F86">
-        <v>0.8100000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>775.5610925021471</v>
+        <v>1.00353202407101</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="E87">
-        <v>0.51</v>
+        <v>0.75</v>
       </c>
       <c r="F87">
-        <v>0.67</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.417096855708647</v>
+        <v>0.1866190509020389</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E88">
-        <v>0.0024</v>
+        <v>0.62</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.67805244642179</v>
+        <v>775.5610925021471</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E89">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="F89">
-        <v>0.2</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>50.4303490949173</v>
+        <v>0.417096855708647</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E90">
-        <v>0.25</v>
+        <v>0.0024</v>
       </c>
       <c r="F90">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>5.721841552964469</v>
+        <v>0.67805244642179</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D91" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E91">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="F91">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3375,19 +3408,19 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>5.721841552964469</v>
+        <v>50.4303490949173</v>
       </c>
       <c r="C92" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D92" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E92">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="F92">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3395,339 +3428,339 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0.450245</v>
+        <v>5.721841552964469</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="E93">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="F93">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>0.864174</v>
+        <v>5.721841552964469</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="E94">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="F94">
-        <v>1.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>0.491934</v>
+        <v>0.450245</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D95" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E95">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="F95">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>3.94702364488783</v>
+        <v>0.864174</v>
       </c>
       <c r="C96" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="E96">
-        <v>0.45</v>
+        <v>1.03</v>
       </c>
       <c r="F96">
-        <v>0.59</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>1101.03781847766</v>
+        <v>0.491934</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="E97">
-        <v>0.29</v>
+        <v>0.59</v>
       </c>
       <c r="F97">
-        <v>0.38</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>8.01436960654148</v>
+        <v>3.94702364488783</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D98" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E98">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="F98">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>9.505202000000001</v>
+        <v>1101.03781847766</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E99">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="F99">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>0.951004763637921</v>
+        <v>8.01436960654148</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E100">
-        <v>0.951004763637921</v>
+        <v>0.52</v>
       </c>
       <c r="F100">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>212.437827427381</v>
+        <v>9.505202000000001</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="E101">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="F101">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>0.5765902573023221</v>
+        <v>0.951004763637921</v>
       </c>
       <c r="C102" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="E102">
-        <v>0.7</v>
+        <v>0.951004763637921</v>
       </c>
       <c r="F102">
-        <v>0.92</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>401.706612616841</v>
+        <v>212.437827427381</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="D103" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="E103">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="F103">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>0.340944046315761</v>
+        <v>0.5765902573023221</v>
       </c>
       <c r="C104" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D104" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E104">
-        <v>0.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F104">
-        <v>0.54</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>11.3542499826593</v>
+        <v>401.706612616841</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D105" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E105">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="F105">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>16.4861845606784</v>
+        <v>0.340944046315761</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="E106">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F106">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>277.412807983172</v>
+        <v>11.3542499826593</v>
       </c>
       <c r="C107" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D107" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E107">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="F107">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>1.59634880561452</v>
+        <v>16.4861845606784</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D108" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E108">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F108">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>7.11743151547225</v>
+        <v>277.412807983172</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E109">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="F109">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3735,19 +3768,19 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>7.11743151547225</v>
+        <v>1.59634880561452</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D110" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="E110">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="F110">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3755,219 +3788,219 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>253.799695383855</v>
+        <v>7.11743151547225</v>
       </c>
       <c r="C111" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
       <c r="E111">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="F111">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>135.136439097495</v>
+        <v>7.11743151547225</v>
       </c>
       <c r="C112" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E112">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F112">
-        <v>0.43</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>11.221066511064</v>
+        <v>253.799695383855</v>
       </c>
       <c r="C113" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="D113" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="E113">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="F113">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>0.794891</v>
+        <v>135.136439097495</v>
       </c>
       <c r="C114" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="D114" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="E114">
-        <v>0.96</v>
+        <v>0.33</v>
       </c>
       <c r="F114">
-        <v>1.26</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>9.30294</v>
+        <v>11.221066511064</v>
       </c>
       <c r="C115" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D115" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E115">
-        <v>1.11</v>
+        <v>0.32</v>
       </c>
       <c r="F115">
-        <v>1.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>33.8845949857364</v>
+        <v>0.794891</v>
       </c>
       <c r="C116" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="E116">
-        <v>0.29</v>
+        <v>0.95</v>
       </c>
       <c r="F116">
-        <v>0.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>1.08627842398814</v>
+        <v>9.30294</v>
       </c>
       <c r="C117" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="E117">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="F117">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>1.45911</v>
+        <v>33.8845949857364</v>
       </c>
       <c r="C118" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E118">
-        <v>1.04</v>
+        <v>0.29</v>
       </c>
       <c r="F118">
-        <v>1.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>0.206942462946532</v>
+        <v>1.08627842398814</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="D119" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="E119">
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="F119">
-        <v>0.71</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>35.79767703586729</v>
+        <v>1.45911</v>
       </c>
       <c r="C120" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D120" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E120">
-        <v>0.23</v>
+        <v>1.02</v>
       </c>
       <c r="F120">
-        <v>0.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>0.478862212445632</v>
+        <v>0.206942462946532</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E121">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="F121">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3975,19 +4008,19 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.478862212445632</v>
+        <v>35.79767703586729</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D122" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="E122">
-        <v>0.478862212445632</v>
+        <v>0.23</v>
       </c>
       <c r="F122">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3995,339 +4028,339 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.73568174505867</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D123" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E123">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="F123">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>19.404986883789</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="D124" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="E124">
-        <v>0.4</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="F124">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8117700376963991</v>
+        <v>1.73568174505867</v>
       </c>
       <c r="C125" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="D125" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="E125">
-        <v>0.8117700376963991</v>
+        <v>0.44</v>
       </c>
       <c r="F125">
-        <v>1.06</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>2.10746125115928</v>
+        <v>19.404986883789</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D126" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E126">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="F126">
-        <v>0.77</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>1.811159</v>
+        <v>0.8117700376963991</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D127" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="E127">
-        <v>0.49</v>
+        <v>0.8117700376963991</v>
       </c>
       <c r="F127">
-        <v>0.64</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
-        <v>0.912016190882154</v>
+        <v>2.10746125115928</v>
       </c>
       <c r="C128" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="D128" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="E128">
-        <v>0.912016190882154</v>
+        <v>0.59</v>
       </c>
       <c r="F128">
-        <v>1.19</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>0.574206</v>
+        <v>1.811159</v>
       </c>
       <c r="C129" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="D129" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="E129">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="F129">
-        <v>0.92</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
-        <v>2551.04021521804</v>
+        <v>0.912016190882154</v>
       </c>
       <c r="C130" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="D130" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="E130">
-        <v>0.38</v>
+        <v>0.912016190882154</v>
       </c>
       <c r="F130">
-        <v>0.5</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
-        <v>2.40352989003426</v>
+        <v>0.574206</v>
       </c>
       <c r="C131" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="D131" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="E131">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="F131">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
-        <v>24.247943</v>
+        <v>2551.04021521804</v>
       </c>
       <c r="C132" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D132" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E132">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="F132">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
-        <v>317.182454956289</v>
+        <v>2.40352989003426</v>
       </c>
       <c r="C133" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D133" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E133">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="F133">
-        <v>0.42</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
-        <v>1.76944612839592</v>
+        <v>24.247943</v>
       </c>
       <c r="C134" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E134">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="F134">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
-        <v>239.12275993346</v>
+        <v>317.182454956289</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="D135" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="E135">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="F135">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
-        <v>0.875475197620001</v>
+        <v>1.76944612839592</v>
       </c>
       <c r="C136" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D136" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E136">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="F136">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
-        <v>6.97704964624406</v>
+        <v>239.12275993346</v>
       </c>
       <c r="C137" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="D137" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="E137">
-        <v>0.87</v>
+        <v>0.43</v>
       </c>
       <c r="F137">
-        <v>1.14</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
-        <v>2649.0305251514</v>
+        <v>0.875475197620001</v>
       </c>
       <c r="C138" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D138" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E138">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="F138">
-        <v>0.34</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
-        <v>0.456906578505361</v>
+        <v>6.97704964624406</v>
       </c>
       <c r="C139" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D139" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E139">
-        <v>0.052</v>
+        <v>0.87</v>
       </c>
       <c r="F139">
-        <v>0.07000000000000001</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4335,19 +4368,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.456906578505361</v>
+        <v>2649.0305251514</v>
       </c>
       <c r="C140" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="D140" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="E140">
-        <v>0.456906578505361</v>
+        <v>0.26</v>
       </c>
       <c r="F140">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4355,399 +4388,519 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.681416995287087</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="C141" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="D141" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="E141">
-        <v>0.83</v>
+        <v>0.052</v>
       </c>
       <c r="F141">
-        <v>1.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142">
-        <v>8229.531085861441</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="C142" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="D142" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="E142">
-        <v>14.28</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="F142">
-        <v>18.71</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143">
-        <v>8.023819207009479</v>
+        <v>0.681416995287087</v>
       </c>
       <c r="C143" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="D143" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="E143">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F143">
-        <v>0.72</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144">
-        <v>1.0263656903801</v>
+        <v>8229.531085861441</v>
       </c>
       <c r="C144" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="D144" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="E144">
-        <v>1.0263656903801</v>
+        <v>14.28</v>
       </c>
       <c r="F144">
-        <v>1.34</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145">
-        <v>252.027960292434</v>
+        <v>2.74870090935574</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="D145" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="E145">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="F145">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146">
-        <v>238.71139332045</v>
+        <v>0.568426</v>
       </c>
       <c r="C146" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D146" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E146">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="F146">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147">
-        <v>12.5736324625292</v>
+        <v>8.902761</v>
       </c>
       <c r="C147" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D147" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E147">
-        <v>0.4</v>
+        <v>1.04</v>
       </c>
       <c r="F147">
-        <v>0.52</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148">
-        <v>2.3514373614881</v>
+        <v>1.44177351925059</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D148" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E148">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="F148">
-        <v>0.28</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149">
-        <v>0.420643991821992</v>
+        <v>8.023819207009479</v>
       </c>
       <c r="C149" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="D149" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="E149">
-        <v>0.420643991821992</v>
+        <v>0.53</v>
       </c>
       <c r="F149">
-        <v>0.55</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150">
-        <v>4.2990560207373</v>
+        <v>1.0263656903801</v>
       </c>
       <c r="C150" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="D150" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="E150">
-        <v>0.63</v>
+        <v>1.0263656903801</v>
       </c>
       <c r="F150">
-        <v>0.83</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151">
-        <v>0.8667296682716191</v>
+        <v>252.027960292434</v>
       </c>
       <c r="C151" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="D151" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="E151">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="F151">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152">
-        <v>2.113114</v>
+        <v>238.71139332045</v>
       </c>
       <c r="C152" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="D152" t="s">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="E152">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="F152">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153">
-        <v>1.3059942981698</v>
+        <v>12.5736324625292</v>
       </c>
       <c r="C153" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="D153" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="E153">
-        <v>1.01</v>
+        <v>0.4</v>
       </c>
       <c r="F153">
-        <v>1.32</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154">
-        <v>1299.45978146478</v>
+        <v>2.3514373614881</v>
       </c>
       <c r="C154" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D154" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E154">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="F154">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155">
-        <v>7.069492950726779</v>
+        <v>0.420643991821992</v>
       </c>
       <c r="C155" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="D155" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="E155">
-        <v>0.26</v>
+        <v>0.420643991821992</v>
       </c>
       <c r="F155">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156">
-        <v>25.3512988749765</v>
+        <v>4.2990560207373</v>
       </c>
       <c r="C156" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D156" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E156">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="F156">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0.8667296682716191</v>
       </c>
       <c r="C157" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="D157" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="F157">
-        <v>1.31</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158">
-        <v>2085.54845778662</v>
+        <v>2.113114</v>
       </c>
       <c r="C158" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D158" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E158">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="F158">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159">
-        <v>6.65256591249346</v>
+        <v>1.3059942981698</v>
       </c>
       <c r="C159" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="E159">
-        <v>0.48</v>
+        <v>0.98</v>
       </c>
       <c r="F159">
-        <v>0.63</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>1299.45978146478</v>
+      </c>
+      <c r="C160" t="s">
+        <v>278</v>
+      </c>
+      <c r="D160" t="s">
+        <v>397</v>
+      </c>
+      <c r="E160">
+        <v>0.37</v>
+      </c>
+      <c r="F160">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
         <v>158</v>
       </c>
-      <c r="B160">
+      <c r="B161">
+        <v>7.069492950726779</v>
+      </c>
+      <c r="C161" t="s">
+        <v>279</v>
+      </c>
+      <c r="D161" t="s">
+        <v>398</v>
+      </c>
+      <c r="E161">
+        <v>0.26</v>
+      </c>
+      <c r="F161">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>25.3512988749765</v>
+      </c>
+      <c r="C162" t="s">
+        <v>280</v>
+      </c>
+      <c r="D162" t="s">
+        <v>399</v>
+      </c>
+      <c r="E162">
+        <v>0.58</v>
+      </c>
+      <c r="F162">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>208</v>
+      </c>
+      <c r="D163" t="s">
+        <v>327</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>2085.54845778662</v>
+      </c>
+      <c r="C164" t="s">
+        <v>281</v>
+      </c>
+      <c r="D164" t="s">
+        <v>400</v>
+      </c>
+      <c r="E164">
+        <v>0.2</v>
+      </c>
+      <c r="F164">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>6.65256591249346</v>
+      </c>
+      <c r="C165" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" t="s">
+        <v>355</v>
+      </c>
+      <c r="E165">
+        <v>0.47</v>
+      </c>
+      <c r="F165">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166">
         <v>4.641657434116651</v>
       </c>
-      <c r="C160" t="s">
-        <v>274</v>
-      </c>
-      <c r="D160" t="s">
-        <v>390</v>
-      </c>
-      <c r="E160">
-        <v>0.26</v>
-      </c>
-      <c r="F160">
-        <v>0.34</v>
+      <c r="C166" t="s">
+        <v>282</v>
+      </c>
+      <c r="D166" t="s">
+        <v>401</v>
+      </c>
+      <c r="E166">
+        <v>0.21</v>
+      </c>
+      <c r="F166">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="399">
   <si>
     <t>Country</t>
   </si>
@@ -76,9 +76,6 @@
     <t>benin</t>
   </si>
   <si>
-    <t>burkina faso</t>
-  </si>
-  <si>
     <t>bangladesh</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>canada</t>
   </si>
   <si>
-    <t>switzerland</t>
-  </si>
-  <si>
     <t>chile</t>
   </si>
   <si>
@@ -595,9 +589,6 @@
     <t>Canadian Dollar</t>
   </si>
   <si>
-    <t>Swiss Franc</t>
-  </si>
-  <si>
     <t>Unidad de Fomento</t>
   </si>
   <si>
@@ -952,9 +943,6 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>CHF</t>
-  </si>
-  <si>
     <t>CLF</t>
   </si>
   <si>
@@ -1222,7 +1210,7 @@
     <t>ZMW</t>
   </si>
   <si>
-    <t>0.87</t>
+    <t>0.88</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1614,16 +1602,16 @@
         <v>1.35068964958191</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E2">
         <v>0.75</v>
       </c>
       <c r="F2">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1634,10 +1622,10 @@
         <v>17.9144826699909</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E3">
         <v>0.23</v>
@@ -1654,16 +1642,16 @@
         <v>146.167167826781</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E4">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F4">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1674,16 +1662,16 @@
         <v>41.3423914138531</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E5">
         <v>0.4</v>
       </c>
       <c r="F5">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1694,16 +1682,16 @@
         <v>2.25850307596397</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E6">
         <v>0.61</v>
       </c>
       <c r="F6">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1714,16 +1702,16 @@
         <v>20.7139578408443</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E7">
         <v>0.22</v>
       </c>
       <c r="F7">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1734,16 +1722,16 @@
         <v>155.770479651178</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E8">
         <v>0.3</v>
       </c>
       <c r="F8">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1754,16 +1742,16 @@
         <v>2.01945320919558</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E9">
         <v>0.75</v>
       </c>
       <c r="F9">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1774,16 +1762,16 @@
         <v>1.461587</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E10">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="F10">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1794,16 +1782,16 @@
         <v>0.759962</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E11">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F11">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1814,10 +1802,10 @@
         <v>0.541783029023867</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E12">
         <v>0.32</v>
@@ -1834,16 +1822,16 @@
         <v>614.273901861231</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E13">
         <v>0.31</v>
       </c>
       <c r="F13">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1854,16 +1842,16 @@
         <v>0.7540249999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E14">
         <v>0.9</v>
       </c>
       <c r="F14">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1874,10 +1862,10 @@
         <v>208.14828767688</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E15">
         <v>0.38</v>
@@ -1891,19 +1879,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>202.684664333737</v>
+        <v>31.4128719205924</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E16">
         <v>0.37</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1911,19 +1899,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>31.4128719205924</v>
+        <v>0.6985512891981379</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E17">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1931,19 +1919,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.6985512891981379</v>
+        <v>0.188021618496962</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E18">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1951,19 +1939,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.188021618496962</v>
+        <v>0.674721776333022</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E19">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="F19">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1971,19 +1959,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.674721776333022</v>
+        <v>0.69701659405586</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E20">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="F20">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1991,19 +1979,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.69701659405586</v>
+        <v>1.31658399660205</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E21">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
       <c r="F21">
-        <v>0.38</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2011,19 +1999,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1.31658399660205</v>
+        <v>1.37078595612015</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E22">
-        <v>0.65</v>
+        <v>1.37</v>
       </c>
       <c r="F22">
-        <v>0.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2031,19 +2019,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.37078595612015</v>
+        <v>2.69410512565797</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E23">
-        <v>1.37</v>
+        <v>0.39</v>
       </c>
       <c r="F23">
-        <v>1.85</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2051,19 +2039,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>2.69410512565797</v>
+        <v>2.24738365412163</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E24">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F24">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2071,19 +2059,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>2.24738365412163</v>
+        <v>2.22256686623555</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E25">
-        <v>0.44</v>
+        <v>1.1</v>
       </c>
       <c r="F25">
-        <v>0.59</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2091,19 +2079,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>2.22256686623555</v>
+        <v>0.6539719595070339</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E26">
-        <v>1.1</v>
+        <v>0.49</v>
       </c>
       <c r="F26">
-        <v>1.49</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2111,39 +2099,39 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0.6539719595070339</v>
+        <v>18.9001286950754</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E27">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="F27">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>18.9001286950754</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E28">
         <v>0.25</v>
       </c>
       <c r="F28">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2151,19 +2139,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>18.9001286950754</v>
+        <v>4.615553083753571</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E29">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="F29">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2171,19 +2159,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>4.615553083753571</v>
+        <v>277.852867490644</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E30">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="F30">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2191,19 +2179,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>277.852867490644</v>
+        <v>1.198088</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E31">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F31">
-        <v>0.68</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2211,59 +2199,59 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>1.198088</v>
+        <v>420.903055</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E32">
-        <v>0.96</v>
+        <v>16857.18</v>
       </c>
       <c r="F32">
-        <v>1.3</v>
+        <v>22476.24</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>1.143836</v>
+        <v>420.903055</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E33">
-        <v>1.24</v>
+        <v>0.57</v>
       </c>
       <c r="F33">
-        <v>1.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>420.903055</v>
+        <v>4.20011786862713</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E34">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="F34">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2271,19 +2259,19 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>420.903055</v>
+        <v>232.218111523829</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E35">
+        <v>0.42</v>
+      </c>
+      <c r="F35">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="F35">
-        <v>0.76</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2291,19 +2279,19 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>4.20011786862713</v>
+        <v>1351.775746</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E36">
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
       <c r="F36">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2311,19 +2299,19 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>232.218111523829</v>
+        <v>188.465816580834</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E37">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="F37">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2331,19 +2319,19 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>1351.775746</v>
+        <v>47.39553801356399</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E38">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="F38">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2351,19 +2339,19 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>188.465816580834</v>
+        <v>341.441239</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E39">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="F39">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2371,19 +2359,19 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>47.39553801356399</v>
+        <v>0.321938711455632</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E40">
-        <v>0.51</v>
+        <v>0.013</v>
       </c>
       <c r="F40">
-        <v>0.6899999999999999</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2391,19 +2379,19 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>341.441239</v>
+        <v>0.977497020934353</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E41">
-        <v>0.55</v>
+        <v>1.17</v>
       </c>
       <c r="F41">
-        <v>0.74</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2411,19 +2399,19 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.321938711455632</v>
+        <v>0.608703010927457</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E42">
-        <v>0.013</v>
+        <v>0.73</v>
       </c>
       <c r="F42">
-        <v>0.02</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2431,19 +2419,19 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.977497020934353</v>
+        <v>12.843495</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E43">
-        <v>1.17</v>
+        <v>0.6</v>
       </c>
       <c r="F43">
-        <v>1.58</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2451,19 +2439,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.608703010927457</v>
+        <v>0.744679</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
-      </c>
-      <c r="E44">
-        <v>0.72</v>
-      </c>
-      <c r="F44">
-        <v>0.97</v>
+        <v>289</v>
+      </c>
+      <c r="E44" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2471,19 +2456,19 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>12.843495</v>
+        <v>105.005967896123</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E45">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F45">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2491,16 +2476,19 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.744679</v>
+        <v>1.75970417134687</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" t="s">
-        <v>402</v>
+        <v>287</v>
+      </c>
+      <c r="E46">
+        <v>0.65</v>
+      </c>
+      <c r="F46">
+        <v>0.87</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2508,19 +2496,19 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>105.005967896123</v>
+        <v>6.66035</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E47">
-        <v>0.59</v>
+        <v>1.07</v>
       </c>
       <c r="F47">
-        <v>0.8</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2528,19 +2516,19 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>1.75970417134687</v>
+        <v>22.09468557324831</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="E48">
-        <v>0.65</v>
+        <v>0.39</v>
       </c>
       <c r="F48">
-        <v>0.88</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2548,19 +2536,19 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.66035</v>
+        <v>39.4753858871813</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E49">
-        <v>1.07</v>
+        <v>0.29</v>
       </c>
       <c r="F49">
-        <v>1.45</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2568,19 +2556,19 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>22.09468557324831</v>
+        <v>0.520580052113819</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E50">
-        <v>0.39</v>
+        <v>0.520580052113819</v>
       </c>
       <c r="F50">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2588,19 +2576,19 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>39.4753858871813</v>
+        <v>0.624484</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="E51">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="F51">
-        <v>0.39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2608,19 +2596,19 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.520580052113819</v>
+        <v>0.5329</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="E52">
-        <v>0.520580052113819</v>
+        <v>0.64</v>
       </c>
       <c r="F52">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2628,19 +2616,19 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.624484</v>
+        <v>10.3494460595822</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="E53">
-        <v>0.74</v>
+        <v>0.24</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2648,19 +2636,19 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.5329</v>
+        <v>0.8545879999999999</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E54">
-        <v>0.63</v>
+        <v>1.02</v>
       </c>
       <c r="F54">
-        <v>0.85</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2668,19 +2656,19 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>10.3494460595822</v>
+        <v>0.933689773974448</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E55">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="F55">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2688,19 +2676,19 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.8545879999999999</v>
+        <v>0.740525</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E56">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="F56">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2708,19 +2696,19 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.933689773974448</v>
+        <v>291.498912218778</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="E57">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="F57">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2728,19 +2716,19 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.740525</v>
+        <v>0.716264</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="E58">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2748,19 +2736,19 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>291.498912218778</v>
+        <v>0.8456104377652759</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="E59">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="F59">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2768,19 +2756,19 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.716264</v>
+        <v>3305.07540389528</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E60">
-        <v>0.99</v>
+        <v>0.34</v>
       </c>
       <c r="F60">
-        <v>1.34</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2788,19 +2776,19 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.8456104377652759</v>
+        <v>196.665273716979</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="E61">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="F61">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2808,19 +2796,19 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>3305.07540389528</v>
+        <v>245.860160205986</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="E62">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="F62">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2828,19 +2816,19 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>196.665273716979</v>
+        <v>0.545546</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E63">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="F63">
-        <v>0.49</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2848,19 +2836,19 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>245.860160205986</v>
+        <v>1.64017111055948</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="E64">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F64">
-        <v>0.61</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2868,19 +2856,19 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.545546</v>
+        <v>3.94233344405393</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="E65">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="F65">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2888,19 +2876,19 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>1.64017111055948</v>
+        <v>100.876253504271</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="E66">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="F66">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2908,19 +2896,19 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>3.94233344405393</v>
+        <v>10.5504895992806</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D67" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E67">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="F67">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2928,19 +2916,19 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>100.876253504271</v>
+        <v>3.27215211127603</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E68">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="F68">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2948,59 +2936,59 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>10.5504895992806</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E69">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="F69">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>3.27215211127603</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D70" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E70">
-        <v>0.52</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="F70">
-        <v>0.7</v>
+        <v>47.05</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>35.2871565136136</v>
+        <v>145.659085</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E71">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="F71">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3008,19 +2996,19 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>35.2871565136136</v>
+        <v>4743.33744681905</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E72">
-        <v>35.2871565136136</v>
+        <v>0.33</v>
       </c>
       <c r="F72">
-        <v>47.69</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3028,19 +3016,19 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>145.659085</v>
+        <v>21.2755038338788</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="E73">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
       <c r="F73">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3048,19 +3036,19 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>4743.33744681905</v>
+        <v>0.816018</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="E74">
-        <v>0.33</v>
+        <v>0.97</v>
       </c>
       <c r="F74">
-        <v>0.45</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3068,19 +3056,19 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>21.2755038338788</v>
+        <v>619.478128523479</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D75" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="E75">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
       <c r="F75">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3088,19 +3076,19 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>0.816018</v>
+        <v>144.108968</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="E76">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="F76">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3108,19 +3096,19 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>619.478128523479</v>
+        <v>3.686015</v>
       </c>
       <c r="C77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E77">
-        <v>0.42</v>
+        <v>1.13</v>
       </c>
       <c r="F77">
-        <v>0.57</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3128,19 +3116,19 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>144.108968</v>
+        <v>0.669014</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="E78">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="F78">
-        <v>1.58</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3148,19 +3136,19 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>3.686015</v>
+        <v>73.0058892307643</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E79">
-        <v>1.13</v>
+        <v>0.49</v>
       </c>
       <c r="F79">
-        <v>1.53</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3168,19 +3156,19 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>0.669014</v>
+        <v>0.2974115086205969</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="F80">
-        <v>1.08</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3188,19 +3176,19 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>73.0058892307643</v>
+        <v>103.412076</v>
       </c>
       <c r="C81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E81">
-        <v>0.49</v>
+        <v>0.93</v>
       </c>
       <c r="F81">
-        <v>0.66</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3208,19 +3196,19 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.2974115086205969</v>
+        <v>136.483499986547</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E82">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="F82">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3228,19 +3216,19 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>103.412076</v>
+        <v>40.97544493910021</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D83" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E83">
-        <v>0.9399999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="F83">
-        <v>1.27</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3248,19 +3236,19 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>136.483499986547</v>
+        <v>1456.01938306187</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E84">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F84">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3268,19 +3256,19 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>40.97544493910021</v>
+        <v>1.00353202407101</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="E85">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="F85">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3288,19 +3276,19 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>1456.01938306187</v>
+        <v>0.1866190509020389</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D86" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E86">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
       <c r="F86">
-        <v>0.49</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3308,19 +3296,19 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>1.00353202407101</v>
+        <v>775.5610925021471</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="E87">
-        <v>0.75</v>
+        <v>0.51</v>
       </c>
       <c r="F87">
-        <v>1.01</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3328,19 +3316,19 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.1866190509020389</v>
+        <v>0.417096855708647</v>
       </c>
       <c r="C88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E88">
-        <v>0.62</v>
+        <v>0.0024</v>
       </c>
       <c r="F88">
-        <v>0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3348,19 +3336,19 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>775.5610925021471</v>
+        <v>0.67805244642179</v>
       </c>
       <c r="C89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D89" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E89">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
       <c r="F89">
-        <v>0.6899999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3368,19 +3356,19 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.417096855708647</v>
+        <v>50.4303490949173</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D90" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E90">
-        <v>0.0024</v>
+        <v>0.25</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3388,59 +3376,59 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.67805244642179</v>
+        <v>5.721841552964469</v>
       </c>
       <c r="C91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E91">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="F91">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>50.4303490949173</v>
+        <v>5.721841552964469</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D92" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E92">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F92">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>5.721841552964469</v>
+        <v>0.450245</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="E93">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="F93">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3448,19 +3436,19 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>5.721841552964469</v>
+        <v>0.864174</v>
       </c>
       <c r="C94" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="D94" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="E94">
-        <v>0.4</v>
+        <v>1.03</v>
       </c>
       <c r="F94">
-        <v>0.54</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3468,19 +3456,19 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.450245</v>
+        <v>0.491934</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E95">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="F95">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3488,19 +3476,19 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.864174</v>
+        <v>3.94702364488783</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="D96" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="E96">
-        <v>1.03</v>
+        <v>0.44</v>
       </c>
       <c r="F96">
-        <v>1.39</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3508,19 +3496,19 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.491934</v>
+        <v>1101.03781847766</v>
       </c>
       <c r="C97" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="D97" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E97">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="F97">
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3528,19 +3516,19 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>3.94702364488783</v>
+        <v>8.01436960654148</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D98" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E98">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="F98">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3548,19 +3536,19 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>1101.03781847766</v>
+        <v>9.505202000000001</v>
       </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E99">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="F99">
-        <v>0.39</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3568,19 +3556,19 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>8.01436960654148</v>
+        <v>0.951004763637921</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="D100" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="E100">
-        <v>0.52</v>
+        <v>0.951004763637921</v>
       </c>
       <c r="F100">
-        <v>0.7</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3588,19 +3576,19 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>9.505202000000001</v>
+        <v>212.437827427381</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="D101" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="E101">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="F101">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3608,19 +3596,19 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>0.951004763637921</v>
+        <v>0.5765902573023221</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D102" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="E102">
-        <v>0.951004763637921</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F102">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3628,19 +3616,19 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>212.437827427381</v>
+        <v>401.706612616841</v>
       </c>
       <c r="C103" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="E103">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="F103">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3648,19 +3636,19 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0.5765902573023221</v>
+        <v>0.340944046315761</v>
       </c>
       <c r="C104" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D104" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E104">
-        <v>0.6899999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="F104">
-        <v>0.93</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3668,19 +3656,19 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>401.706612616841</v>
+        <v>11.3542499826593</v>
       </c>
       <c r="C105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D105" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E105">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="F105">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3688,19 +3676,19 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>0.340944046315761</v>
+        <v>16.4861845606784</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="D106" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="E106">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F106">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3708,19 +3696,19 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>11.3542499826593</v>
+        <v>277.412807983172</v>
       </c>
       <c r="C107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D107" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E107">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="F107">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3728,19 +3716,19 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>16.4861845606784</v>
+        <v>1.59634880561452</v>
       </c>
       <c r="C108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D108" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E108">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="F108">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3748,59 +3736,59 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>277.412807983172</v>
+        <v>7.11743151547225</v>
       </c>
       <c r="C109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E109">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="F109">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>1.59634880561452</v>
+        <v>7.11743151547225</v>
       </c>
       <c r="C110" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E110">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="F110">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>7.11743151547225</v>
+        <v>253.799695383855</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="D111" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="E111">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="F111">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3808,19 +3796,19 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7.11743151547225</v>
+        <v>135.136439097495</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D112" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E112">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F112">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3828,19 +3816,19 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>253.799695383855</v>
+        <v>11.221066511064</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="D113" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="E113">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="F113">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3848,19 +3836,19 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>135.136439097495</v>
+        <v>0.794891</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="D114" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="E114">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="F114">
-        <v>0.45</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3868,19 +3856,19 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>11.221066511064</v>
+        <v>9.30294</v>
       </c>
       <c r="C115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D115" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E115">
-        <v>0.32</v>
+        <v>1.09</v>
       </c>
       <c r="F115">
-        <v>0.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3888,19 +3876,19 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.794891</v>
+        <v>33.8845949857364</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="D116" t="s">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="E116">
-        <v>0.95</v>
+        <v>0.29</v>
       </c>
       <c r="F116">
-        <v>1.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3908,19 +3896,19 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>9.30294</v>
+        <v>1.08627842398814</v>
       </c>
       <c r="C117" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="D117" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="E117">
-        <v>1.08</v>
+        <v>0.82</v>
       </c>
       <c r="F117">
-        <v>1.46</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3928,19 +3916,19 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>33.8845949857364</v>
+        <v>1.45911</v>
       </c>
       <c r="C118" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D118" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E118">
-        <v>0.29</v>
+        <v>1.03</v>
       </c>
       <c r="F118">
-        <v>0.39</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3948,19 +3936,19 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.08627842398814</v>
+        <v>0.206942462946532</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="D119" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="E119">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="F119">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3968,19 +3956,19 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.45911</v>
+        <v>35.79767703586729</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D120" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E120">
-        <v>1.02</v>
+        <v>0.23</v>
       </c>
       <c r="F120">
-        <v>1.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3988,59 +3976,59 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.206942462946532</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D121" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E121">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="F121">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>35.79767703586729</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="C122" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D122" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E122">
-        <v>0.23</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="F122">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>0.478862212445632</v>
+        <v>1.73568174505867</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D123" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E123">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="F123">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4048,19 +4036,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.478862212445632</v>
+        <v>19.404986883789</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="E124">
-        <v>0.478862212445632</v>
+        <v>0.4</v>
       </c>
       <c r="F124">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4068,19 +4056,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.73568174505867</v>
+        <v>0.8117700376963991</v>
       </c>
       <c r="C125" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="D125" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="E125">
-        <v>0.44</v>
+        <v>0.8117700376963991</v>
       </c>
       <c r="F125">
-        <v>0.59</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4088,19 +4076,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>19.404986883789</v>
+        <v>2.10746125115928</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D126" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E126">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="F126">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4108,19 +4096,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8117700376963991</v>
+        <v>1.811159</v>
       </c>
       <c r="C127" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="D127" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="E127">
-        <v>0.8117700376963991</v>
+        <v>0.48</v>
       </c>
       <c r="F127">
-        <v>1.1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4128,19 +4116,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2.10746125115928</v>
+        <v>0.912016190882154</v>
       </c>
       <c r="C128" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="E128">
-        <v>0.59</v>
+        <v>0.912016190882154</v>
       </c>
       <c r="F128">
-        <v>0.8</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4148,19 +4136,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.811159</v>
+        <v>0.574206</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="D129" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="E129">
-        <v>0.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F129">
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4168,19 +4156,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.912016190882154</v>
+        <v>2551.04021521804</v>
       </c>
       <c r="C130" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="D130" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="E130">
-        <v>0.912016190882154</v>
+        <v>0.38</v>
       </c>
       <c r="F130">
-        <v>1.23</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4188,19 +4176,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.574206</v>
+        <v>2.40352989003426</v>
       </c>
       <c r="C131" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="D131" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="E131">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="F131">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4208,19 +4196,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2551.04021521804</v>
+        <v>24.247943</v>
       </c>
       <c r="C132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D132" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E132">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="F132">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4228,19 +4216,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.40352989003426</v>
+        <v>317.182454956289</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D133" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E133">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="F133">
-        <v>0.89</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4248,19 +4236,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>24.247943</v>
+        <v>1.76944612839592</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D134" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E134">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="F134">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4268,19 +4256,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>317.182454956289</v>
+        <v>239.12275993346</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="D135" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="E135">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="F135">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4288,19 +4276,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.76944612839592</v>
+        <v>0.875475197620001</v>
       </c>
       <c r="C136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D136" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E136">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
       <c r="F136">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4308,19 +4296,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>239.12275993346</v>
+        <v>6.97704964624406</v>
       </c>
       <c r="C137" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="D137" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="E137">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
       <c r="F137">
-        <v>0.58</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4328,19 +4316,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.875475197620001</v>
+        <v>2649.0305251514</v>
       </c>
       <c r="C138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D138" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E138">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="F138">
-        <v>0.88</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4348,59 +4336,59 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6.97704964624406</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="C139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D139" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E139">
-        <v>0.87</v>
+        <v>0.052</v>
       </c>
       <c r="F139">
-        <v>1.18</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140">
-        <v>2649.0305251514</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="C140" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="D140" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="E140">
-        <v>0.26</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="F140">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141">
-        <v>0.456906578505361</v>
+        <v>0.681416995287087</v>
       </c>
       <c r="C141" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="D141" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="E141">
-        <v>0.052</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F141">
-        <v>0.07000000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4408,19 +4396,19 @@
         <v>139</v>
       </c>
       <c r="B142">
-        <v>0.456906578505361</v>
+        <v>8229.531085861441</v>
       </c>
       <c r="C142" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="D142" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="E142">
-        <v>0.456906578505361</v>
+        <v>14.28</v>
       </c>
       <c r="F142">
-        <v>0.62</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4428,19 +4416,19 @@
         <v>140</v>
       </c>
       <c r="B143">
-        <v>0.681416995287087</v>
+        <v>2.74870090935574</v>
       </c>
       <c r="C143" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="D143" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="E143">
-        <v>0.8100000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F143">
-        <v>1.09</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4448,19 +4436,19 @@
         <v>141</v>
       </c>
       <c r="B144">
-        <v>8229.531085861441</v>
+        <v>0.568426</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="D144" t="s">
-        <v>387</v>
+        <v>289</v>
       </c>
       <c r="E144">
-        <v>14.28</v>
+        <v>0.68</v>
       </c>
       <c r="F144">
-        <v>19.3</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4468,19 +4456,19 @@
         <v>142</v>
       </c>
       <c r="B145">
-        <v>2.74870090935574</v>
+        <v>8.902761</v>
       </c>
       <c r="C145" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D145" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E145">
-        <v>0.13</v>
+        <v>1.05</v>
       </c>
       <c r="F145">
-        <v>0.18</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4488,19 +4476,19 @@
         <v>143</v>
       </c>
       <c r="B146">
-        <v>0.568426</v>
+        <v>1.44177351925059</v>
       </c>
       <c r="C146" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="D146" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="E146">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="F146">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4508,19 +4496,19 @@
         <v>144</v>
       </c>
       <c r="B147">
-        <v>8.902761</v>
+        <v>8.023819207009479</v>
       </c>
       <c r="C147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D147" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E147">
-        <v>1.04</v>
+        <v>0.54</v>
       </c>
       <c r="F147">
-        <v>1.41</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4528,19 +4516,19 @@
         <v>145</v>
       </c>
       <c r="B148">
-        <v>1.44177351925059</v>
+        <v>1.0263656903801</v>
       </c>
       <c r="C148" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="D148" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="E148">
-        <v>0.8</v>
+        <v>1.0263656903801</v>
       </c>
       <c r="F148">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4548,19 +4536,19 @@
         <v>146</v>
       </c>
       <c r="B149">
-        <v>8.023819207009479</v>
+        <v>252.027960292434</v>
       </c>
       <c r="C149" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="D149" t="s">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="E149">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="F149">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4568,19 +4556,19 @@
         <v>147</v>
       </c>
       <c r="B150">
-        <v>1.0263656903801</v>
+        <v>238.71139332045</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="D150" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="E150">
-        <v>1.0263656903801</v>
+        <v>0.43</v>
       </c>
       <c r="F150">
-        <v>1.39</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4588,19 +4576,19 @@
         <v>148</v>
       </c>
       <c r="B151">
-        <v>252.027960292434</v>
+        <v>12.5736324625292</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="D151" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
       <c r="E151">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="F151">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4608,19 +4596,19 @@
         <v>149</v>
       </c>
       <c r="B152">
-        <v>238.71139332045</v>
+        <v>2.3514373614881</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="D152" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="E152">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="F152">
-        <v>0.58</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4628,19 +4616,19 @@
         <v>150</v>
       </c>
       <c r="B153">
-        <v>12.5736324625292</v>
+        <v>0.420643991821992</v>
       </c>
       <c r="C153" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="D153" t="s">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="E153">
-        <v>0.4</v>
+        <v>0.420643991821992</v>
       </c>
       <c r="F153">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4648,19 +4636,19 @@
         <v>151</v>
       </c>
       <c r="B154">
-        <v>2.3514373614881</v>
+        <v>4.2990560207373</v>
       </c>
       <c r="C154" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D154" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E154">
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="F154">
-        <v>0.28</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4668,19 +4656,19 @@
         <v>152</v>
       </c>
       <c r="B155">
-        <v>0.420643991821992</v>
+        <v>0.8667296682716191</v>
       </c>
       <c r="C155" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="D155" t="s">
-        <v>327</v>
+        <v>391</v>
       </c>
       <c r="E155">
-        <v>0.420643991821992</v>
+        <v>0.31</v>
       </c>
       <c r="F155">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4688,19 +4676,19 @@
         <v>153</v>
       </c>
       <c r="B156">
-        <v>4.2990560207373</v>
+        <v>2.113114</v>
       </c>
       <c r="C156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D156" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E156">
-        <v>0.63</v>
+        <v>0.24</v>
       </c>
       <c r="F156">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4708,19 +4696,19 @@
         <v>154</v>
       </c>
       <c r="B157">
-        <v>0.8667296682716191</v>
+        <v>1.3059942981698</v>
       </c>
       <c r="C157" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>395</v>
+        <v>288</v>
       </c>
       <c r="E157">
-        <v>0.31</v>
+        <v>0.99</v>
       </c>
       <c r="F157">
-        <v>0.42</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4728,19 +4716,19 @@
         <v>155</v>
       </c>
       <c r="B158">
-        <v>2.113114</v>
+        <v>1299.45978146478</v>
       </c>
       <c r="C158" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D158" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E158">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="F158">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4748,19 +4736,19 @@
         <v>156</v>
       </c>
       <c r="B159">
-        <v>1.3059942981698</v>
+        <v>7.069492950726779</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="D159" t="s">
-        <v>291</v>
+        <v>394</v>
       </c>
       <c r="E159">
-        <v>0.98</v>
+        <v>0.26</v>
       </c>
       <c r="F159">
-        <v>1.32</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4768,19 +4756,19 @@
         <v>157</v>
       </c>
       <c r="B160">
-        <v>1299.45978146478</v>
+        <v>25.3512988749765</v>
       </c>
       <c r="C160" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D160" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E160">
-        <v>0.37</v>
+        <v>0.58</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4788,19 +4776,19 @@
         <v>158</v>
       </c>
       <c r="B161">
-        <v>7.069492950726779</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="D161" t="s">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="E161">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>0.35</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4808,19 +4796,19 @@
         <v>159</v>
       </c>
       <c r="B162">
-        <v>25.3512988749765</v>
+        <v>2085.54845778662</v>
       </c>
       <c r="C162" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D162" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E162">
-        <v>0.58</v>
+        <v>0.2</v>
       </c>
       <c r="F162">
-        <v>0.78</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4828,19 +4816,19 @@
         <v>160</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>6.65256591249346</v>
       </c>
       <c r="C163" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="D163" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="F163">
-        <v>1.35</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4848,58 +4836,18 @@
         <v>161</v>
       </c>
       <c r="B164">
-        <v>2085.54845778662</v>
+        <v>4.641657434116651</v>
       </c>
       <c r="C164" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D164" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E164">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F164">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165">
-        <v>6.65256591249346</v>
-      </c>
-      <c r="C165" t="s">
-        <v>236</v>
-      </c>
-      <c r="D165" t="s">
-        <v>355</v>
-      </c>
-      <c r="E165">
-        <v>0.47</v>
-      </c>
-      <c r="F165">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B166">
-        <v>4.641657434116651</v>
-      </c>
-      <c r="C166" t="s">
-        <v>282</v>
-      </c>
-      <c r="D166" t="s">
-        <v>401</v>
-      </c>
-      <c r="E166">
-        <v>0.21</v>
-      </c>
-      <c r="F166">
         <v>0.28</v>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="403">
   <si>
     <t>Country</t>
   </si>
@@ -76,6 +76,9 @@
     <t>benin</t>
   </si>
   <si>
+    <t>burkina faso</t>
+  </si>
+  <si>
     <t>bangladesh</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>canada</t>
   </si>
   <si>
+    <t>switzerland</t>
+  </si>
+  <si>
     <t>chile</t>
   </si>
   <si>
@@ -589,6 +595,9 @@
     <t>Canadian Dollar</t>
   </si>
   <si>
+    <t>Swiss Franc</t>
+  </si>
+  <si>
     <t>Unidad de Fomento</t>
   </si>
   <si>
@@ -941,6 +950,9 @@
   </si>
   <si>
     <t>CAD</t>
+  </si>
+  <si>
+    <t>CHF</t>
   </si>
   <si>
     <t>CLF</t>
@@ -1568,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1602,10 +1614,10 @@
         <v>1.35068964958191</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E2">
         <v>0.75</v>
@@ -1622,10 +1634,10 @@
         <v>17.9144826699909</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E3">
         <v>0.23</v>
@@ -1642,16 +1654,16 @@
         <v>146.167167826781</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E4">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F4">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1662,10 +1674,10 @@
         <v>41.3423914138531</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E5">
         <v>0.4</v>
@@ -1682,10 +1694,10 @@
         <v>2.25850307596397</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E6">
         <v>0.61</v>
@@ -1702,10 +1714,10 @@
         <v>20.7139578408443</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E7">
         <v>0.22</v>
@@ -1722,10 +1734,10 @@
         <v>155.770479651178</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -1742,10 +1754,10 @@
         <v>2.01945320919558</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E9">
         <v>0.75</v>
@@ -1762,10 +1774,10 @@
         <v>1.461587</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E10">
         <v>1.11</v>
@@ -1782,10 +1794,10 @@
         <v>0.759962</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E11">
         <v>0.91</v>
@@ -1802,10 +1814,10 @@
         <v>0.541783029023867</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E12">
         <v>0.32</v>
@@ -1822,10 +1834,10 @@
         <v>614.273901861231</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E13">
         <v>0.31</v>
@@ -1842,10 +1854,10 @@
         <v>0.7540249999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E14">
         <v>0.9</v>
@@ -1862,10 +1874,10 @@
         <v>208.14828767688</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E15">
         <v>0.38</v>
@@ -1879,13 +1891,13 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>31.4128719205924</v>
+        <v>202.684664333737</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E16">
         <v>0.37</v>
@@ -1899,19 +1911,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.6985512891981379</v>
+        <v>31.4128719205924</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E17">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="F17">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1919,19 +1931,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.188021618496962</v>
+        <v>0.6985512891981379</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="F18">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1939,19 +1951,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.674721776333022</v>
+        <v>0.188021618496962</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E19">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1959,19 +1971,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.69701659405586</v>
+        <v>0.674721776333022</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E20">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="F20">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1979,19 +1991,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1.31658399660205</v>
+        <v>0.69701659405586</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E21">
-        <v>0.65</v>
+        <v>0.27</v>
       </c>
       <c r="F21">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1999,19 +2011,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1.37078595612015</v>
+        <v>1.31658399660205</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E22">
-        <v>1.37</v>
+        <v>0.65</v>
       </c>
       <c r="F22">
-        <v>1.83</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2019,19 +2031,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>2.69410512565797</v>
+        <v>1.37078595612015</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E23">
-        <v>0.39</v>
+        <v>1.37</v>
       </c>
       <c r="F23">
-        <v>0.52</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2039,19 +2051,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>2.24738365412163</v>
+        <v>2.69410512565797</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E24">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="F24">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2059,19 +2071,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>2.22256686623555</v>
+        <v>2.24738365412163</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E25">
-        <v>1.1</v>
+        <v>0.45</v>
       </c>
       <c r="F25">
-        <v>1.47</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2079,19 +2091,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.6539719595070339</v>
+        <v>2.22256686623555</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E26">
-        <v>0.49</v>
+        <v>1.1</v>
       </c>
       <c r="F26">
-        <v>0.65</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2099,33 +2111,33 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>18.9001286950754</v>
+        <v>0.6539719595070339</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E27">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="F27">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>18.9001286950754</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E28">
         <v>0.25</v>
@@ -2139,19 +2151,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>4.615553083753571</v>
+        <v>18.9001286950754</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E29">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="F29">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2159,19 +2171,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>277.852867490644</v>
+        <v>4.615553083753571</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E30">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="F30">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2179,19 +2191,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>1.198088</v>
+        <v>277.852867490644</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E31">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F31">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2199,59 +2211,59 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>420.903055</v>
+        <v>1.198088</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E32">
-        <v>16857.18</v>
+        <v>0.97</v>
       </c>
       <c r="F32">
-        <v>22476.24</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>420.903055</v>
+        <v>1.143836</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E33">
-        <v>0.57</v>
+        <v>1.24</v>
       </c>
       <c r="F33">
-        <v>0.76</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>4.20011786862713</v>
+        <v>420.903055</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E34">
-        <v>0.65</v>
+        <v>16975.64</v>
       </c>
       <c r="F34">
-        <v>0.87</v>
+        <v>22634.19</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2259,19 +2271,19 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>232.218111523829</v>
+        <v>420.903055</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E35">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="F35">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2279,19 +2291,19 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>1351.775746</v>
+        <v>4.20011786862713</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E36">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="F36">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2299,19 +2311,19 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>188.465816580834</v>
+        <v>232.218111523829</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E37">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="F37">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2319,19 +2331,19 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>47.39553801356399</v>
+        <v>1351.775746</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E38">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="F38">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2339,19 +2351,19 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>341.441239</v>
+        <v>188.465816580834</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E39">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="F39">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2359,19 +2371,19 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.321938711455632</v>
+        <v>47.39553801356399</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E40">
-        <v>0.013</v>
+        <v>0.51</v>
       </c>
       <c r="F40">
-        <v>0.02</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2379,19 +2391,19 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.977497020934353</v>
+        <v>341.441239</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E41">
-        <v>1.17</v>
+        <v>0.55</v>
       </c>
       <c r="F41">
-        <v>1.56</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2399,19 +2411,19 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.608703010927457</v>
+        <v>0.321938711455632</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="E42">
-        <v>0.73</v>
+        <v>0.013</v>
       </c>
       <c r="F42">
-        <v>0.97</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2419,19 +2431,19 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>12.843495</v>
+        <v>0.977497020934353</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E43">
-        <v>0.6</v>
+        <v>1.17</v>
       </c>
       <c r="F43">
-        <v>0.8</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2439,16 +2451,19 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.744679</v>
+        <v>0.608703010927457</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" t="s">
-        <v>398</v>
+        <v>292</v>
+      </c>
+      <c r="E44">
+        <v>0.73</v>
+      </c>
+      <c r="F44">
+        <v>0.97</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2456,19 +2471,19 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>105.005967896123</v>
+        <v>12.843495</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E45">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="F45">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2476,19 +2491,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>1.75970417134687</v>
+        <v>0.744679</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
-      </c>
-      <c r="E46">
-        <v>0.65</v>
-      </c>
-      <c r="F46">
-        <v>0.87</v>
+        <v>292</v>
+      </c>
+      <c r="E46" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2496,19 +2508,19 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.66035</v>
+        <v>105.005967896123</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E47">
-        <v>1.07</v>
+        <v>0.59</v>
       </c>
       <c r="F47">
-        <v>1.43</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2516,19 +2528,19 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>22.09468557324831</v>
+        <v>1.75970417134687</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="E48">
-        <v>0.39</v>
+        <v>0.65</v>
       </c>
       <c r="F48">
-        <v>0.52</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2536,19 +2548,19 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>39.4753858871813</v>
+        <v>6.66035</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E49">
-        <v>0.29</v>
+        <v>1.07</v>
       </c>
       <c r="F49">
-        <v>0.39</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2556,19 +2568,19 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.520580052113819</v>
+        <v>22.09468557324831</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E50">
-        <v>0.520580052113819</v>
+        <v>0.39</v>
       </c>
       <c r="F50">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2576,19 +2588,19 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.624484</v>
+        <v>39.4753858871813</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="E51">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2596,19 +2608,19 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.5329</v>
+        <v>0.520580052113819</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="E52">
-        <v>0.64</v>
+        <v>0.520580052113819</v>
       </c>
       <c r="F52">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2616,19 +2628,19 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>10.3494460595822</v>
+        <v>0.624484</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="E53">
-        <v>0.24</v>
+        <v>0.75</v>
       </c>
       <c r="F53">
-        <v>0.32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2636,19 +2648,19 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.8545879999999999</v>
+        <v>0.5329</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E54">
-        <v>1.02</v>
+        <v>0.64</v>
       </c>
       <c r="F54">
-        <v>1.36</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2656,19 +2668,19 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.933689773974448</v>
+        <v>10.3494460595822</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E55">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="F55">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2676,19 +2688,19 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.740525</v>
+        <v>0.8545879999999999</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E56">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="F56">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2696,19 +2708,19 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>291.498912218778</v>
+        <v>0.933689773974448</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="E57">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="F57">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2716,19 +2728,19 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.716264</v>
+        <v>0.740525</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F58">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2736,19 +2748,19 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.8456104377652759</v>
+        <v>291.498912218778</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E59">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="F59">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2756,19 +2768,19 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>3305.07540389528</v>
+        <v>0.716264</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E60">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0.45</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2776,19 +2788,19 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>196.665273716979</v>
+        <v>0.8456104377652759</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="E61">
+        <v>0.27</v>
+      </c>
+      <c r="F61">
         <v>0.36</v>
-      </c>
-      <c r="F61">
-        <v>0.48</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2796,19 +2808,19 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>245.860160205986</v>
+        <v>3305.07540389528</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="E62">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F62">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2816,19 +2828,19 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.545546</v>
+        <v>196.665273716979</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E63">
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
       <c r="F63">
-        <v>0.87</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2836,19 +2848,19 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>1.64017111055948</v>
+        <v>245.860160205986</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D64" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="E64">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F64">
-        <v>0.8100000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2856,19 +2868,19 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>3.94233344405393</v>
+        <v>0.545546</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="E65">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="F65">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2876,19 +2888,19 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>100.876253504271</v>
+        <v>1.64017111055948</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="E66">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="F66">
-        <v>0.64</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2896,19 +2908,19 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>10.5504895992806</v>
+        <v>3.94233344405393</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E67">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="F67">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2916,19 +2928,19 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>3.27215211127603</v>
+        <v>100.876253504271</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E68">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="F68">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2936,59 +2948,59 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>35.2871565136136</v>
+        <v>10.5504895992806</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E69">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="F69">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>35.2871565136136</v>
+        <v>3.27215211127603</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E70">
-        <v>35.2871565136136</v>
+        <v>0.52</v>
       </c>
       <c r="F70">
-        <v>47.05</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>145.659085</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E71">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="F71">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2996,19 +3008,19 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>4743.33744681905</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E72">
-        <v>0.33</v>
+        <v>35.2871565136136</v>
       </c>
       <c r="F72">
-        <v>0.44</v>
+        <v>47.05</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3016,19 +3028,19 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>21.2755038338788</v>
+        <v>145.659085</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="E73">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="F73">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3036,19 +3048,19 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0.816018</v>
+        <v>4743.33744681905</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="E74">
-        <v>0.97</v>
+        <v>0.33</v>
       </c>
       <c r="F74">
-        <v>1.29</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3056,19 +3068,19 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>619.478128523479</v>
+        <v>21.2755038338788</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="E75">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="F75">
-        <v>0.5600000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3076,19 +3088,19 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>144.108968</v>
+        <v>0.816018</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="E76">
-        <v>1.18</v>
+        <v>0.97</v>
       </c>
       <c r="F76">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3096,19 +3108,19 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>3.686015</v>
+        <v>619.478128523479</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E77">
-        <v>1.13</v>
+        <v>0.42</v>
       </c>
       <c r="F77">
-        <v>1.51</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3116,19 +3128,19 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.669014</v>
+        <v>144.108968</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="E78">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="F78">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3136,19 +3148,19 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>73.0058892307643</v>
+        <v>3.686015</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E79">
-        <v>0.49</v>
+        <v>1.13</v>
       </c>
       <c r="F79">
-        <v>0.65</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3156,19 +3168,19 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>0.2974115086205969</v>
+        <v>0.669014</v>
       </c>
       <c r="C80" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="E80">
-        <v>0.42</v>
+        <v>0.8</v>
       </c>
       <c r="F80">
-        <v>0.5600000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3176,19 +3188,19 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>103.412076</v>
+        <v>73.0058892307643</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E81">
-        <v>0.93</v>
+        <v>0.49</v>
       </c>
       <c r="F81">
-        <v>1.24</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3196,19 +3208,19 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>136.483499986547</v>
+        <v>0.2974115086205969</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E82">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="F82">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3216,19 +3228,19 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>40.97544493910021</v>
+        <v>103.412076</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D83" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E83">
-        <v>0.38</v>
+        <v>0.93</v>
       </c>
       <c r="F83">
-        <v>0.51</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3236,19 +3248,19 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>1456.01938306187</v>
+        <v>136.483499986547</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E84">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="F84">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3256,19 +3268,19 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>1.00353202407101</v>
+        <v>40.97544493910021</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="E85">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="F85">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3276,19 +3288,19 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0.1866190509020389</v>
+        <v>1456.01938306187</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E86">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="F86">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3296,19 +3308,19 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>775.5610925021471</v>
+        <v>1.00353202407101</v>
       </c>
       <c r="C87" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="E87">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="F87">
-        <v>0.68</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3316,19 +3328,19 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.417096855708647</v>
+        <v>0.1866190509020389</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E88">
-        <v>0.0024</v>
+        <v>0.62</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3336,19 +3348,19 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>0.67805244642179</v>
+        <v>775.5610925021471</v>
       </c>
       <c r="C89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E89">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="F89">
-        <v>0.2</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3356,19 +3368,19 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>50.4303490949173</v>
+        <v>0.417096855708647</v>
       </c>
       <c r="C90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E90">
-        <v>0.25</v>
+        <v>0.0024</v>
       </c>
       <c r="F90">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3376,59 +3388,59 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>5.721841552964469</v>
+        <v>0.67805244642179</v>
       </c>
       <c r="C91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D91" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E91">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="F91">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>5.721841552964469</v>
+        <v>50.4303490949173</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D92" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E92">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F92">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.450245</v>
+        <v>5.721841552964469</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="E93">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="F93">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3436,19 +3448,19 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.864174</v>
+        <v>5.721841552964469</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="E94">
-        <v>1.03</v>
+        <v>0.4</v>
       </c>
       <c r="F94">
-        <v>1.37</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3456,19 +3468,19 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.491934</v>
+        <v>0.450245</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D95" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E95">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="F95">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3476,19 +3488,19 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3.94702364488783</v>
+        <v>0.864174</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="E96">
-        <v>0.44</v>
+        <v>1.03</v>
       </c>
       <c r="F96">
-        <v>0.59</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3496,19 +3508,19 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1101.03781847766</v>
+        <v>0.491934</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="E97">
-        <v>0.29</v>
+        <v>0.59</v>
       </c>
       <c r="F97">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3516,19 +3528,19 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>8.01436960654148</v>
+        <v>3.94702364488783</v>
       </c>
       <c r="C98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E98">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="F98">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3536,19 +3548,19 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>9.505202000000001</v>
+        <v>1101.03781847766</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E99">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="F99">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3556,19 +3568,19 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.951004763637921</v>
+        <v>8.01436960654148</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="E100">
-        <v>0.951004763637921</v>
+        <v>0.52</v>
       </c>
       <c r="F100">
-        <v>1.27</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3576,19 +3588,19 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>212.437827427381</v>
+        <v>9.505202000000001</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="D101" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="E101">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="F101">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3596,19 +3608,19 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>0.5765902573023221</v>
+        <v>0.951004763637921</v>
       </c>
       <c r="C102" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="E102">
-        <v>0.6899999999999999</v>
+        <v>0.951004763637921</v>
       </c>
       <c r="F102">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3616,19 +3628,19 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>401.706612616841</v>
+        <v>212.437827427381</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="D103" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="E103">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="F103">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3636,19 +3648,19 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0.340944046315761</v>
+        <v>0.5765902573023221</v>
       </c>
       <c r="C104" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E104">
-        <v>0.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F104">
-        <v>0.55</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3656,19 +3668,19 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>11.3542499826593</v>
+        <v>401.706612616841</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D105" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E105">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="F105">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3676,19 +3688,19 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>16.4861845606784</v>
+        <v>0.340944046315761</v>
       </c>
       <c r="C106" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="E106">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F106">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3696,19 +3708,19 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>277.412807983172</v>
+        <v>11.3542499826593</v>
       </c>
       <c r="C107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D107" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E107">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="F107">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3716,19 +3728,19 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1.59634880561452</v>
+        <v>16.4861845606784</v>
       </c>
       <c r="C108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D108" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E108">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="F108">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3736,59 +3748,59 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>7.11743151547225</v>
+        <v>277.412807983172</v>
       </c>
       <c r="C109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E109">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="F109">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>7.11743151547225</v>
+        <v>1.59634880561452</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D110" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E110">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="F110">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>253.799695383855</v>
+        <v>7.11743151547225</v>
       </c>
       <c r="C111" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="E111">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="F111">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3796,19 +3808,19 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>135.136439097495</v>
+        <v>7.11743151547225</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E112">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F112">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3816,19 +3828,19 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>11.221066511064</v>
+        <v>253.799695383855</v>
       </c>
       <c r="C113" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="D113" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="E113">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="F113">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3836,19 +3848,19 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.794891</v>
+        <v>135.136439097495</v>
       </c>
       <c r="C114" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="D114" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="E114">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="F114">
-        <v>1.27</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3856,19 +3868,19 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>9.30294</v>
+        <v>11.221066511064</v>
       </c>
       <c r="C115" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D115" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E115">
-        <v>1.09</v>
+        <v>0.32</v>
       </c>
       <c r="F115">
-        <v>1.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3876,19 +3888,19 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>33.8845949857364</v>
+        <v>0.794891</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="D116" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="E116">
-        <v>0.29</v>
+        <v>0.95</v>
       </c>
       <c r="F116">
-        <v>0.39</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3896,19 +3908,19 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.08627842398814</v>
+        <v>9.30294</v>
       </c>
       <c r="C117" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="E117">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="F117">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3916,19 +3928,19 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.45911</v>
+        <v>33.8845949857364</v>
       </c>
       <c r="C118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E118">
-        <v>1.03</v>
+        <v>0.29</v>
       </c>
       <c r="F118">
-        <v>1.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3936,19 +3948,19 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.206942462946532</v>
+        <v>1.08627842398814</v>
       </c>
       <c r="C119" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="D119" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="E119">
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="F119">
-        <v>0.72</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3956,19 +3968,19 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>35.79767703586729</v>
+        <v>1.45911</v>
       </c>
       <c r="C120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D120" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E120">
-        <v>0.23</v>
+        <v>1.03</v>
       </c>
       <c r="F120">
-        <v>0.31</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3976,59 +3988,59 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.478862212445632</v>
+        <v>0.206942462946532</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E121">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="F121">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>0.478862212445632</v>
+        <v>35.79767703586729</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="D122" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="E122">
-        <v>0.478862212445632</v>
+        <v>0.23</v>
       </c>
       <c r="F122">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>1.73568174505867</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="C123" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D123" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E123">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="F123">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4036,19 +4048,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>19.404986883789</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="C124" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D124" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="E124">
-        <v>0.4</v>
+        <v>0.478862212445632</v>
       </c>
       <c r="F124">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4056,19 +4068,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8117700376963991</v>
+        <v>1.73568174505867</v>
       </c>
       <c r="C125" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D125" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="E125">
-        <v>0.8117700376963991</v>
+        <v>0.44</v>
       </c>
       <c r="F125">
-        <v>1.08</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4076,19 +4088,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2.10746125115928</v>
+        <v>19.404986883789</v>
       </c>
       <c r="C126" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D126" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E126">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="F126">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4096,19 +4108,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.811159</v>
+        <v>0.8117700376963991</v>
       </c>
       <c r="C127" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="D127" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="E127">
-        <v>0.48</v>
+        <v>0.8117700376963991</v>
       </c>
       <c r="F127">
-        <v>0.64</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4116,19 +4128,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.912016190882154</v>
+        <v>2.10746125115928</v>
       </c>
       <c r="C128" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="D128" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="E128">
-        <v>0.912016190882154</v>
+        <v>0.59</v>
       </c>
       <c r="F128">
-        <v>1.22</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4136,19 +4148,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.574206</v>
+        <v>1.811159</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="D129" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
       <c r="E129">
-        <v>0.6899999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="F129">
-        <v>0.92</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4156,19 +4168,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2551.04021521804</v>
+        <v>0.912016190882154</v>
       </c>
       <c r="C130" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D130" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="E130">
-        <v>0.38</v>
+        <v>0.912016190882154</v>
       </c>
       <c r="F130">
-        <v>0.51</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4176,19 +4188,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2.40352989003426</v>
+        <v>0.574206</v>
       </c>
       <c r="C131" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="D131" t="s">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="E131">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F131">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4196,19 +4208,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>24.247943</v>
+        <v>2551.04021521804</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D132" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E132">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="F132">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4216,19 +4228,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>317.182454956289</v>
+        <v>2.40352989003426</v>
       </c>
       <c r="C133" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E133">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="F133">
-        <v>0.43</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4236,19 +4248,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.76944612839592</v>
+        <v>24.247943</v>
       </c>
       <c r="C134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E134">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="F134">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4256,19 +4268,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>239.12275993346</v>
+        <v>317.182454956289</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="D135" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="E135">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="F135">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4276,19 +4288,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.875475197620001</v>
+        <v>1.76944612839592</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D136" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E136">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="F136">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4296,19 +4308,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6.97704964624406</v>
+        <v>239.12275993346</v>
       </c>
       <c r="C137" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="D137" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="E137">
-        <v>0.87</v>
+        <v>0.43</v>
       </c>
       <c r="F137">
-        <v>1.16</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4316,19 +4328,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2649.0305251514</v>
+        <v>0.875475197620001</v>
       </c>
       <c r="C138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D138" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E138">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="F138">
-        <v>0.35</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4336,59 +4348,59 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.456906578505361</v>
+        <v>6.97704964624406</v>
       </c>
       <c r="C139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D139" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E139">
-        <v>0.052</v>
+        <v>0.87</v>
       </c>
       <c r="F139">
-        <v>0.07000000000000001</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140">
-        <v>0.456906578505361</v>
+        <v>2649.0305251514</v>
       </c>
       <c r="C140" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="D140" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="E140">
-        <v>0.456906578505361</v>
+        <v>0.26</v>
       </c>
       <c r="F140">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141">
-        <v>0.681416995287087</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="D141" t="s">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="E141">
-        <v>0.8100000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="F141">
-        <v>1.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4396,19 +4408,19 @@
         <v>139</v>
       </c>
       <c r="B142">
-        <v>8229.531085861441</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="C142" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="D142" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="E142">
-        <v>14.28</v>
+        <v>0.456906578505361</v>
       </c>
       <c r="F142">
-        <v>19.04</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4416,19 +4428,19 @@
         <v>140</v>
       </c>
       <c r="B143">
-        <v>2.74870090935574</v>
+        <v>0.681416995287087</v>
       </c>
       <c r="C143" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="D143" t="s">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="E143">
-        <v>0.13</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F143">
-        <v>0.17</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4436,19 +4448,19 @@
         <v>141</v>
       </c>
       <c r="B144">
-        <v>0.568426</v>
+        <v>8229.531085861441</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="D144" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="E144">
-        <v>0.68</v>
+        <v>14.25</v>
       </c>
       <c r="F144">
-        <v>0.91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4456,19 +4468,19 @@
         <v>142</v>
       </c>
       <c r="B145">
-        <v>8.902761</v>
+        <v>2.74870090935574</v>
       </c>
       <c r="C145" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D145" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E145">
-        <v>1.05</v>
+        <v>0.13</v>
       </c>
       <c r="F145">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4476,19 +4488,19 @@
         <v>143</v>
       </c>
       <c r="B146">
-        <v>1.44177351925059</v>
+        <v>0.568426</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="D146" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="F146">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4496,19 +4508,19 @@
         <v>144</v>
       </c>
       <c r="B147">
-        <v>8.023819207009479</v>
+        <v>8.902761</v>
       </c>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D147" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E147">
-        <v>0.54</v>
+        <v>1.05</v>
       </c>
       <c r="F147">
-        <v>0.72</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4516,19 +4528,19 @@
         <v>145</v>
       </c>
       <c r="B148">
-        <v>1.0263656903801</v>
+        <v>1.44177351925059</v>
       </c>
       <c r="C148" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="D148" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="E148">
-        <v>1.0263656903801</v>
+        <v>0.8</v>
       </c>
       <c r="F148">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4536,19 +4548,19 @@
         <v>146</v>
       </c>
       <c r="B149">
-        <v>252.027960292434</v>
+        <v>8.023819207009479</v>
       </c>
       <c r="C149" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="D149" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="E149">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="F149">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4556,19 +4568,19 @@
         <v>147</v>
       </c>
       <c r="B150">
-        <v>238.71139332045</v>
+        <v>1.0263656903801</v>
       </c>
       <c r="C150" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D150" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="E150">
-        <v>0.43</v>
+        <v>1.0263656903801</v>
       </c>
       <c r="F150">
-        <v>0.57</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4576,19 +4588,19 @@
         <v>148</v>
       </c>
       <c r="B151">
-        <v>12.5736324625292</v>
+        <v>252.027960292434</v>
       </c>
       <c r="C151" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="D151" t="s">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="E151">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="F151">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4596,19 +4608,19 @@
         <v>149</v>
       </c>
       <c r="B152">
-        <v>2.3514373614881</v>
+        <v>238.71139332045</v>
       </c>
       <c r="C152" t="s">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="D152" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
       <c r="E152">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="F152">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4616,19 +4628,19 @@
         <v>150</v>
       </c>
       <c r="B153">
-        <v>0.420643991821992</v>
+        <v>12.5736324625292</v>
       </c>
       <c r="C153" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="D153" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="E153">
-        <v>0.420643991821992</v>
+        <v>0.39</v>
       </c>
       <c r="F153">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4636,19 +4648,19 @@
         <v>151</v>
       </c>
       <c r="B154">
-        <v>4.2990560207373</v>
+        <v>2.3514373614881</v>
       </c>
       <c r="C154" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D154" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E154">
-        <v>0.63</v>
+        <v>0.21</v>
       </c>
       <c r="F154">
-        <v>0.84</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4656,19 +4668,19 @@
         <v>152</v>
       </c>
       <c r="B155">
-        <v>0.8667296682716191</v>
+        <v>0.420643991821992</v>
       </c>
       <c r="C155" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="D155" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="E155">
-        <v>0.31</v>
+        <v>0.420643991821992</v>
       </c>
       <c r="F155">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4676,19 +4688,19 @@
         <v>153</v>
       </c>
       <c r="B156">
-        <v>2.113114</v>
+        <v>4.2990560207373</v>
       </c>
       <c r="C156" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D156" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E156">
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
       <c r="F156">
-        <v>0.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4696,19 +4708,19 @@
         <v>154</v>
       </c>
       <c r="B157">
-        <v>1.3059942981698</v>
+        <v>0.8667296682716191</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="D157" t="s">
-        <v>288</v>
+        <v>395</v>
       </c>
       <c r="E157">
-        <v>0.99</v>
+        <v>0.31</v>
       </c>
       <c r="F157">
-        <v>1.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4716,19 +4728,19 @@
         <v>155</v>
       </c>
       <c r="B158">
-        <v>1299.45978146478</v>
+        <v>2.113114</v>
       </c>
       <c r="C158" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D158" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E158">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="F158">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4736,19 +4748,19 @@
         <v>156</v>
       </c>
       <c r="B159">
-        <v>7.069492950726779</v>
+        <v>1.3059942981698</v>
       </c>
       <c r="C159" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>394</v>
+        <v>291</v>
       </c>
       <c r="E159">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="F159">
-        <v>0.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4756,19 +4768,19 @@
         <v>157</v>
       </c>
       <c r="B160">
-        <v>25.3512988749765</v>
+        <v>1299.45978146478</v>
       </c>
       <c r="C160" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D160" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E160">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
       <c r="F160">
-        <v>0.77</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4776,19 +4788,19 @@
         <v>158</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>7.069492950726779</v>
       </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="D161" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="F161">
-        <v>1.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4796,19 +4808,19 @@
         <v>159</v>
       </c>
       <c r="B162">
-        <v>2085.54845778662</v>
+        <v>25.3512988749765</v>
       </c>
       <c r="C162" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D162" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E162">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="F162">
-        <v>0.27</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4816,19 +4828,19 @@
         <v>160</v>
       </c>
       <c r="B163">
-        <v>6.65256591249346</v>
+        <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D163" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="E163">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>0.63</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4836,19 +4848,59 @@
         <v>161</v>
       </c>
       <c r="B164">
+        <v>2085.54845778662</v>
+      </c>
+      <c r="C164" t="s">
+        <v>281</v>
+      </c>
+      <c r="D164" t="s">
+        <v>400</v>
+      </c>
+      <c r="E164">
+        <v>0.2</v>
+      </c>
+      <c r="F164">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>6.65256591249346</v>
+      </c>
+      <c r="C165" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" t="s">
+        <v>355</v>
+      </c>
+      <c r="E165">
+        <v>0.47</v>
+      </c>
+      <c r="F165">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166">
         <v>4.641657434116651</v>
       </c>
-      <c r="C164" t="s">
-        <v>279</v>
-      </c>
-      <c r="D164" t="s">
-        <v>397</v>
-      </c>
-      <c r="E164">
-        <v>0.21</v>
-      </c>
-      <c r="F164">
-        <v>0.28</v>
+      <c r="C166" t="s">
+        <v>282</v>
+      </c>
+      <c r="D166" t="s">
+        <v>401</v>
+      </c>
+      <c r="E166">
+        <v>0.26</v>
+      </c>
+      <c r="F166">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
